--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D0588-00CD-1940-A77A-BD632A6EDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885816F-D98C-ED49-A350-C43A3B382FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="50">
   <si>
     <t>Compared to</t>
   </si>
@@ -9748,10 +9748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11223,6 +11223,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U46">
+        <f>A22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ref="U47:U51" si="0">A23</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="S1:T1"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885816F-D98C-ED49-A350-C43A3B382FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0343B-327B-8141-A0D8-45161ABDB035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="53">
   <si>
     <t>Compared to</t>
   </si>
@@ -189,12 +189,21 @@
   <si>
     <t>Determ. Demo</t>
   </si>
+  <si>
+    <t>4290424-4290429</t>
+  </si>
+  <si>
+    <t>Additional Q-Value Update</t>
+  </si>
+  <si>
+    <t>+ soft target update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +216,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -354,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,6 +388,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,12 +403,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +434,8 @@
       <xdr:rowOff>8716</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1587806" cy="191591"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -458,6 +477,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -675,7 +695,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -740,8 +760,8 @@
       <xdr:rowOff>8717</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188513" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -783,6 +803,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -822,7 +843,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -886,8 +907,8 @@
       <xdr:rowOff>10821</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="187038" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -929,6 +950,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -968,7 +990,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1032,8 +1054,8 @@
       <xdr:rowOff>46295</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1329723" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1075,6 +1097,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1300,7 +1323,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1371,8 +1394,8 @@
       <xdr:rowOff>40883</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3164178" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1884,7 +1907,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1985,8 +2008,8 @@
       <xdr:rowOff>23745</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1102610" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2028,6 +2051,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2037,7 +2061,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2221,7 +2245,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2318,8 +2342,8 @@
       <xdr:rowOff>15030</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2387,7 +2411,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2800,7 +2824,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2953,8 +2977,8 @@
       <xdr:rowOff>17135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3022,7 +3046,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3435,7 +3459,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3588,8 +3612,8 @@
       <xdr:rowOff>25849</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1102610" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -3631,6 +3655,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3640,7 +3665,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -3824,7 +3849,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -3921,8 +3946,8 @@
       <xdr:rowOff>17134</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -3990,7 +4015,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -4403,7 +4428,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4556,8 +4581,8 @@
       <xdr:rowOff>19239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -4625,7 +4650,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -5038,7 +5063,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5191,8 +5216,8 @@
       <xdr:rowOff>52603</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2983958" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5234,6 +5259,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5712,7 +5738,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5796,8 +5822,8 @@
       <xdr:rowOff>47193</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2983958" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -5839,6 +5865,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6317,7 +6344,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -6401,8 +6428,8 @@
       <xdr:rowOff>33367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1289071" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -6444,6 +6471,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6655,7 +6683,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -6726,8 +6754,8 @@
       <xdr:rowOff>37574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3164178" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -7239,7 +7267,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -7323,6 +7351,574 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>〖 𝜋〗_𝜙 (𝑓_𝜙^𝑑 (𝜀_𝑡;𝑠_𝑡 )│𝑠_𝑡 )|</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2511393" cy="198452"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECF97E0-2643-B193-525D-59BF72068FBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13849350" y="425450"/>
+              <a:ext cx="2511393" cy="198452"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>ℓ</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:bar>
+                          <m:barPr>
+                            <m:pos m:val="top"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:barPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜃</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:bar>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>|</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:bar>
+                          <m:barPr>
+                            <m:pos m:val="top"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:barPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜃</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:bar>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>|)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECF97E0-2643-B193-525D-59BF72068FBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13849350" y="425450"/>
+              <a:ext cx="2511393" cy="198452"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℓ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑄_𝜃 (𝑠_𝑡,𝑎_𝑡^𝑑 ), 𝑄_¯𝜃 (𝑠_𝑡,𝑎_𝑡^𝑑 )+𝛼_𝑖 |𝑄_¯𝜃 (𝑠_𝑡,𝑎_𝑡^𝑑)|)</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -7635,7 +8231,7 @@
   <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7684,73 +8280,73 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="15"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="19"/>
       <c r="AO1" t="s">
         <v>0</v>
       </c>
@@ -9750,8 +10346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9780,44 +10376,44 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="19"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -11248,6 +11844,9 @@
       <c r="U46">
         <f>A22</f>
         <v>20</v>
+      </c>
+      <c r="W46" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -11402,12 +12001,738 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="22" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>2</v>
+      </c>
+      <c r="P2" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C0343B-327B-8141-A0D8-45161ABDB035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645AA2A-AAC1-774D-8053-473FB96CFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -391,6 +391,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,10 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7373,8 +7371,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2511393" cy="198452"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7416,6 +7414,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7847,14 +7846,7 @@
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>)</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>|)</m:t>
+                      <m:t>)|)</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -7864,7 +7856,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -8280,73 +8272,73 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="18" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="18" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="18" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="18" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="18" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="19"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="21"/>
       <c r="AO1" t="s">
         <v>0</v>
       </c>
@@ -8370,11 +8362,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
@@ -10339,6 +10331,7 @@
     <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10376,37 +10369,37 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="21"/>
       <c r="U1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11845,7 +11838,7 @@
         <f>A22</f>
         <v>20</v>
       </c>
-      <c r="W46" s="21" t="s">
+      <c r="W46" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11995,6 +11988,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12004,23 +11998,23 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="22" customWidth="1"/>
-    <col min="8" max="10" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" customWidth="1"/>
     <col min="16" max="16" width="4.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="4" customWidth="1"/>
@@ -12032,33 +12026,33 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="18" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="21"/>
       <c r="U1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12173,10 +12167,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -12191,7 +12185,7 @@
       <c r="V4">
         <v>-1</v>
       </c>
-      <c r="Z4" s="24" t="s">
+      <c r="Z4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12199,16 +12193,16 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="23" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="U5" t="s">
@@ -12222,13 +12216,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="23" t="s">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T6" s="4" t="s">
@@ -12245,10 +12239,10 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="22" t="s">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -12271,10 +12265,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="22" t="s">
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
         <v>9</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -12297,10 +12291,10 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
         <v>9</v>
       </c>
       <c r="R9" s="4" t="s">
@@ -12326,7 +12320,7 @@
       <c r="M10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="4" t="s">
@@ -12363,13 +12357,16 @@
       </c>
       <c r="U11" t="s">
         <v>39</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -12383,13 +12380,16 @@
       </c>
       <c r="U12" t="s">
         <v>39</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -12403,13 +12403,16 @@
       </c>
       <c r="U13" t="s">
         <v>39</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -12423,13 +12426,16 @@
       </c>
       <c r="U14" t="s">
         <v>39</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="P15" s="4" t="s">
@@ -12443,13 +12449,16 @@
       </c>
       <c r="U15" t="s">
         <v>39</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -12464,12 +12473,15 @@
       <c r="U16" t="s">
         <v>39</v>
       </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -12484,12 +12496,15 @@
       <c r="U17" t="s">
         <v>39</v>
       </c>
+      <c r="V17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -12504,8 +12519,11 @@
       <c r="U18" t="s">
         <v>39</v>
       </c>
+      <c r="V18">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12524,12 +12542,15 @@
       <c r="U19" t="s">
         <v>39</v>
       </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -12544,12 +12565,15 @@
       <c r="U20" t="s">
         <v>39</v>
       </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -12564,12 +12588,15 @@
       <c r="U21" t="s">
         <v>39</v>
       </c>
+      <c r="V21">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -12584,12 +12611,15 @@
       <c r="U22" t="s">
         <v>39</v>
       </c>
+      <c r="V22">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -12604,12 +12634,15 @@
       <c r="U23" t="s">
         <v>39</v>
       </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -12624,12 +12657,15 @@
       <c r="U24" t="s">
         <v>39</v>
       </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" t="s">
         <v>9</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -12644,12 +12680,15 @@
       <c r="U25" t="s">
         <v>39</v>
       </c>
+      <c r="V25">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" t="s">
         <v>9</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -12664,33 +12703,36 @@
       <c r="U26" t="s">
         <v>39</v>
       </c>
+      <c r="V26">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12733,6 +12775,7 @@
     <mergeCell ref="B1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645AA2A-AAC1-774D-8053-473FB96CFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA08AA0-D21D-7144-AC3F-95C23039B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="53">
   <si>
     <t>Compared to</t>
   </si>
@@ -163,9 +163,6 @@
     <t>lernt nichts</t>
   </si>
   <si>
-    <t>nicht signifikant</t>
-  </si>
-  <si>
     <t>Mode 1</t>
   </si>
   <si>
@@ -190,13 +187,16 @@
     <t>Determ. Demo</t>
   </si>
   <si>
-    <t>4290424-4290429</t>
-  </si>
-  <si>
     <t>Additional Q-Value Update</t>
   </si>
   <si>
     <t>+ soft target update</t>
+  </si>
+  <si>
+    <t>Loss clipped (-100,100)</t>
+  </si>
+  <si>
+    <t>pv besser</t>
   </si>
 </sst>
 </file>
@@ -10337,10 +10337,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10367,7 +10368,7 @@
     <col min="29" max="29" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="20" t="s">
         <v>32</v>
@@ -10397,7 +10398,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="21"/>
       <c r="S1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="14" t="s">
@@ -10405,7 +10406,7 @@
       </c>
       <c r="V1" s="15"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -10469,7 +10470,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -10495,10 +10496,13 @@
         <v>-1</v>
       </c>
       <c r="AA3" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -10526,8 +10530,11 @@
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -10555,11 +10562,14 @@
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
       <c r="AA5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -10585,16 +10595,16 @@
         <v>39</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AA6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -10622,14 +10632,11 @@
       <c r="V7">
         <v>-1</v>
       </c>
-      <c r="W7" t="s">
-        <v>40</v>
-      </c>
       <c r="AA7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -10657,14 +10664,11 @@
       <c r="V8">
         <v>-1</v>
       </c>
-      <c r="W8" t="s">
-        <v>40</v>
-      </c>
       <c r="AA8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -10692,14 +10696,11 @@
       <c r="V9">
         <v>-1</v>
       </c>
-      <c r="W9" t="s">
-        <v>40</v>
-      </c>
       <c r="AA9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -10727,11 +10728,14 @@
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10" t="s">
+        <v>52</v>
+      </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -10759,8 +10763,11 @@
       <c r="V11">
         <v>0</v>
       </c>
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -10786,10 +10793,13 @@
         <v>39</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -10817,11 +10827,8 @@
       <c r="V13">
         <v>-1</v>
       </c>
-      <c r="W13" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -10849,11 +10856,8 @@
       <c r="V14">
         <v>-1</v>
       </c>
-      <c r="W14" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -10881,11 +10885,8 @@
       <c r="V15">
         <v>-1</v>
       </c>
-      <c r="W15" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -10911,10 +10912,10 @@
         <v>39</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -10943,10 +10944,10 @@
         <v>39</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -10975,10 +10976,10 @@
         <v>39</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -11009,9 +11010,6 @@
       <c r="V19">
         <v>-1</v>
       </c>
-      <c r="W19" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -11041,9 +11039,6 @@
       <c r="V20">
         <v>-1</v>
       </c>
-      <c r="W20" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -11073,9 +11068,6 @@
       <c r="V21">
         <v>-1</v>
       </c>
-      <c r="W21" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
@@ -11103,10 +11095,10 @@
         <v>39</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -11135,10 +11127,10 @@
         <v>39</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -11167,10 +11159,10 @@
         <v>39</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -11201,9 +11193,6 @@
       <c r="V25">
         <v>-1</v>
       </c>
-      <c r="W25" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
@@ -11233,9 +11222,6 @@
       <c r="V26">
         <v>-1</v>
       </c>
-      <c r="W26" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
@@ -11265,9 +11251,6 @@
       <c r="V27">
         <v>-1</v>
       </c>
-      <c r="W27" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
@@ -11295,7 +11278,10 @@
         <v>39</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -11326,6 +11312,9 @@
       <c r="V29">
         <v>0</v>
       </c>
+      <c r="W29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
@@ -11355,6 +11344,9 @@
       <c r="V30">
         <v>0</v>
       </c>
+      <c r="W30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
@@ -11384,9 +11376,6 @@
       <c r="V31">
         <v>-1</v>
       </c>
-      <c r="W31" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
@@ -11416,9 +11405,6 @@
       <c r="V32">
         <v>-1</v>
       </c>
-      <c r="W32" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
@@ -11448,9 +11434,6 @@
       <c r="V33">
         <v>-1</v>
       </c>
-      <c r="W33" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
@@ -11478,7 +11461,10 @@
         <v>39</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -11509,6 +11495,9 @@
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="W35" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -11567,9 +11556,6 @@
       <c r="V37">
         <v>-1</v>
       </c>
-      <c r="W37" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
@@ -11599,9 +11585,6 @@
       <c r="V38">
         <v>-1</v>
       </c>
-      <c r="W38" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
@@ -11631,9 +11614,6 @@
       <c r="V39">
         <v>-1</v>
       </c>
-      <c r="W39" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
@@ -11692,6 +11672,9 @@
       <c r="V41">
         <v>0</v>
       </c>
+      <c r="W41" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
@@ -11719,7 +11702,10 @@
         <v>39</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -11750,9 +11736,6 @@
       <c r="V43">
         <v>-1</v>
       </c>
-      <c r="W43" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
@@ -11838,9 +11821,10 @@
         <f>A22</f>
         <v>20</v>
       </c>
-      <c r="W46" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="V46">
+        <v>-1</v>
+      </c>
+      <c r="W46" s="17"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
@@ -11868,6 +11852,9 @@
         <f t="shared" ref="U47:U51" si="0">A23</f>
         <v>21</v>
       </c>
+      <c r="V47">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
@@ -11895,8 +11882,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="V48">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -11922,8 +11912,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -11949,8 +11942,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="V50">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -11975,6 +11971,9 @@
       <c r="U51">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="V51">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -11997,7 +11996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
@@ -12050,7 +12049,7 @@
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="14" t="s">
@@ -12160,7 +12159,7 @@
         <v>-1</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -12186,7 +12185,7 @@
         <v>-1</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA08AA0-D21D-7144-AC3F-95C23039B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420DBAF-ED18-BB4A-AC2D-369CF7F2AC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="53">
   <si>
     <t>Compared to</t>
   </si>
@@ -196,7 +196,7 @@
     <t>Loss clipped (-100,100)</t>
   </si>
   <si>
-    <t>pv besser</t>
+    <t>B5 (incl)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,6 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7365,7 +7366,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -10339,9 +10340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V52" sqref="V52"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10363,6 +10364,10 @@
     <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.6640625" style="4" customWidth="1"/>
     <col min="21" max="21" width="6.83203125" customWidth="1"/>
+    <col min="23" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="1.83203125" customWidth="1"/>
+    <col min="25" max="25" width="3" customWidth="1"/>
+    <col min="26" max="26" width="3.1640625" customWidth="1"/>
     <col min="27" max="27" width="26.33203125" customWidth="1"/>
     <col min="28" max="28" width="39.1640625" customWidth="1"/>
     <col min="29" max="29" width="34.1640625" customWidth="1"/>
@@ -10530,9 +10535,6 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="5" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
@@ -10562,9 +10564,6 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>52</v>
-      </c>
       <c r="AA5" t="s">
         <v>41</v>
       </c>
@@ -10597,9 +10596,6 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>52</v>
-      </c>
       <c r="AA6" t="s">
         <v>42</v>
       </c>
@@ -10728,9 +10724,6 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>52</v>
-      </c>
       <c r="AA10" t="s">
         <v>46</v>
       </c>
@@ -10762,9 +10755,6 @@
       </c>
       <c r="V11">
         <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -10795,9 +10785,6 @@
       <c r="V12">
         <v>-1</v>
       </c>
-      <c r="W12" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -10914,11 +10901,8 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -10946,11 +10930,8 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -10978,11 +10959,8 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -11011,7 +10989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -11040,7 +11018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -11069,7 +11047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -11097,11 +11075,8 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -11129,11 +11104,8 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -11161,11 +11133,8 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -11194,7 +11163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -11223,7 +11192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -11252,7 +11221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -11280,11 +11249,8 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -11312,11 +11278,8 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -11344,11 +11307,8 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -11377,7 +11337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -11463,9 +11423,6 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
@@ -11495,9 +11452,6 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -11672,9 +11626,6 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
@@ -11703,9 +11654,6 @@
       </c>
       <c r="V42">
         <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -11994,10 +11942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12014,16 +11962,17 @@
     <col min="13" max="13" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="5.1640625" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="23" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="20" t="s">
         <v>33</v>
@@ -12047,17 +11996,18 @@
       <c r="Q1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -12103,25 +12053,28 @@
       <c r="O2" s="7">
         <v>2</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>4</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12143,26 +12096,25 @@
       <c r="O3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="P3" s="14"/>
+      <c r="S3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-1</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12172,23 +12124,23 @@
       <c r="O4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
         <v>39</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-1</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12198,20 +12150,20 @@
       <c r="O5" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="S5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
         <v>39</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12221,20 +12173,20 @@
       <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
         <v>39</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12244,23 +12196,23 @@
       <c r="O7" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
         <v>39</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-1</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12270,23 +12222,23 @@
       <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="S8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
         <v>39</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-1</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12296,23 +12248,23 @@
       <c r="O9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="S9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-1</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12322,207 +12274,207 @@
       <c r="O10" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="S10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
         <v>39</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="P11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
         <v>39</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="P12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="P13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
         <v>39</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="P14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" t="s">
         <v>39</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="P15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" t="s">
         <v>39</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="P16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
         <v>39</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="P17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" t="s">
         <v>39</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="P18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" t="s">
         <v>39</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12532,20 +12484,20 @@
       <c r="N19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="R19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" t="s">
         <v>39</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12555,20 +12507,20 @@
       <c r="N20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="R20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
         <v>39</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12578,20 +12530,20 @@
       <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="R21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
         <v>39</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12601,20 +12553,20 @@
       <c r="N22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="R22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
         <v>39</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12624,20 +12576,20 @@
       <c r="N23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="R23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" t="s">
         <v>39</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12647,20 +12599,20 @@
       <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="R24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" t="s">
         <v>39</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12670,20 +12622,20 @@
       <c r="N25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="R25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" t="s">
         <v>39</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12693,75 +12645,203 @@
       <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="R26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" t="s">
         <v>39</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27">
+        <f>A19</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V34" si="0">A20</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12769,9 +12849,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:M1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420DBAF-ED18-BB4A-AC2D-369CF7F2AC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE0977C-8A8A-5543-B3EF-62FDEA081662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="54">
   <si>
     <t>Compared to</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>B5 (incl)</t>
+  </si>
+  <si>
+    <t>pv schlechter</t>
   </si>
 </sst>
 </file>
@@ -11945,7 +11948,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12335,6 +12338,9 @@
       <c r="W12">
         <v>0</v>
       </c>
+      <c r="X12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -12678,6 +12684,9 @@
         <f>A19</f>
         <v>17</v>
       </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -12699,6 +12708,9 @@
         <f t="shared" ref="V28:V34" si="0">A20</f>
         <v>18</v>
       </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -12720,6 +12732,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -12741,6 +12756,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -12762,6 +12780,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -12783,8 +12804,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12804,8 +12828,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12825,23 +12852,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE0977C-8A8A-5543-B3EF-62FDEA081662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7B6DC4-EA50-EB4E-8F5C-122EC20F19D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="58">
   <si>
     <t>Compared to</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>pv schlechter</t>
+  </si>
+  <si>
+    <t>Pretrained demo</t>
+  </si>
+  <si>
+    <t>Add. Policy update</t>
+  </si>
+  <si>
+    <t>limit obs 1</t>
+  </si>
+  <si>
+    <t>limit obs 2</t>
   </si>
 </sst>
 </file>
@@ -7369,7 +7381,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8224,10 +8236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9211,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -9265,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -9319,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -9373,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -9427,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -9481,7 +9493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -9534,8 +9546,17 @@
       <c r="AP22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AS22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT22" s="17">
+        <v>4292411</v>
+      </c>
+      <c r="AU22" s="17">
+        <v>4292412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -9588,8 +9609,17 @@
       <c r="AP23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AS23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT23" s="17">
+        <v>4292413</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>4292414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -9643,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -9697,7 +9727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -9751,7 +9781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -9805,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -9859,7 +9889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -9913,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -9967,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -10021,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -10344,8 +10374,8 @@
   <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10393,7 +10423,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="21"/>
       <c r="J1" s="20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="20" t="s">
@@ -11945,10 +11975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11971,11 +12001,13 @@
     <col min="19" max="19" width="5.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.83203125" style="23" customWidth="1"/>
     <col min="21" max="21" width="6.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="20" t="s">
         <v>33</v>
@@ -12005,12 +12037,16 @@
         <v>48</v>
       </c>
       <c r="U1" s="21"/>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="21"/>
+      <c r="X1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -12074,10 +12110,16 @@
       <c r="U2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12107,17 +12149,20 @@
       <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
         <v>39</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>-1</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12133,17 +12178,20 @@
       <c r="U4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
         <v>39</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>-1</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AC4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12159,14 +12207,17 @@
       <c r="U5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
         <v>39</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12182,14 +12233,17 @@
       <c r="U6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" t="s">
         <v>39</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12205,17 +12259,20 @@
       <c r="U7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>-1</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12231,17 +12288,20 @@
       <c r="U8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" t="s">
         <v>39</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>-1</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12257,17 +12317,20 @@
       <c r="U9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" t="s">
         <v>39</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>-1</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12283,17 +12346,20 @@
       <c r="U10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" t="s">
         <v>39</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>-1</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12309,14 +12375,17 @@
       <c r="U11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
         <v>39</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12332,17 +12401,20 @@
       <c r="U12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" t="s">
         <v>39</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12358,14 +12430,17 @@
       <c r="U13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
         <v>39</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12381,14 +12456,17 @@
       <c r="U14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
         <v>39</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12404,14 +12482,17 @@
       <c r="U15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" t="s">
         <v>39</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12427,14 +12508,17 @@
       <c r="U16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" t="s">
         <v>39</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12450,14 +12534,17 @@
       <c r="U17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" t="s">
         <v>39</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12473,14 +12560,17 @@
       <c r="U18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" t="s">
         <v>39</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12496,14 +12586,17 @@
       <c r="U19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" t="s">
         <v>39</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12519,14 +12612,17 @@
       <c r="U20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" t="s">
         <v>39</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12542,14 +12638,17 @@
       <c r="U21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" t="s">
         <v>39</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12565,14 +12664,17 @@
       <c r="U22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" t="s">
         <v>39</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12588,14 +12690,17 @@
       <c r="U23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" t="s">
         <v>39</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12611,14 +12716,17 @@
       <c r="U24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" t="s">
         <v>39</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12634,14 +12742,17 @@
       <c r="U25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" t="s">
         <v>39</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12657,14 +12768,17 @@
       <c r="U26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" t="s">
         <v>39</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12680,15 +12794,18 @@
       <c r="U27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V27">
+      <c r="W27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12704,15 +12821,18 @@
       <c r="U28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V28">
-        <f t="shared" ref="V28:V34" si="0">A20</f>
+      <c r="W28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:X34" si="0">A20</f>
         <v>18</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12728,15 +12848,18 @@
       <c r="U29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V29">
+      <c r="W29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12752,15 +12875,18 @@
       <c r="U30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V30">
+      <c r="W30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12776,15 +12902,18 @@
       <c r="U31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V31">
+      <c r="W31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12800,15 +12929,18 @@
       <c r="U32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V32">
+      <c r="W32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12824,15 +12956,18 @@
       <c r="U33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V33">
+      <c r="W33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12848,36 +12983,660 @@
       <c r="U34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V34">
+      <c r="W34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R53" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:M1"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7B6DC4-EA50-EB4E-8F5C-122EC20F19D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4572B01-75D1-9340-B312-9DBD9733C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="58">
   <si>
     <t>Compared to</t>
   </si>
@@ -208,10 +208,10 @@
     <t>Add. Policy update</t>
   </si>
   <si>
-    <t>limit obs 1</t>
+    <t>no 6h, 12 predictions</t>
   </si>
   <si>
-    <t>limit obs 2</t>
+    <t>no 6h, 12 predictions, no wind, no renewable share</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,13 +426,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8236,10 +8250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
-  <dimension ref="A1:AU36"/>
+  <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9546,15 +9560,8 @@
       <c r="AP22">
         <v>0</v>
       </c>
-      <c r="AS22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT22" s="17">
-        <v>4292411</v>
-      </c>
-      <c r="AU22" s="17">
-        <v>4292412</v>
-      </c>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -9609,15 +9616,8 @@
       <c r="AP23">
         <v>0</v>
       </c>
-      <c r="AS23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT23" s="17">
-        <v>4292413</v>
-      </c>
-      <c r="AU23" s="17">
-        <v>4292414</v>
-      </c>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -10345,6 +10345,148 @@
       <c r="AP36">
         <v>1</v>
       </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO37">
+        <f>A35</f>
+        <v>32</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>35</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="25"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="25"/>
+      <c r="W38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="23">
+        <f>A35</f>
+        <v>32</v>
+      </c>
+      <c r="AP38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
+      <c r="AT38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11995,11 +12137,11 @@
     <col min="13" max="13" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="5.1640625" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="23" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" customWidth="1"/>
     <col min="21" max="21" width="6.83203125" style="4" customWidth="1"/>
     <col min="22" max="22" width="8" style="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="4" customWidth="1"/>
@@ -12366,7 +12508,7 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" t="s">
         <v>9</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -12392,7 +12534,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
       <c r="S12" s="4" t="s">
@@ -12421,7 +12563,7 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" t="s">
         <v>9</v>
       </c>
       <c r="S13" s="4" t="s">
@@ -12447,7 +12589,7 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" t="s">
         <v>9</v>
       </c>
       <c r="S14" s="4" t="s">
@@ -12473,7 +12615,7 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" t="s">
         <v>9</v>
       </c>
       <c r="S15" s="4" t="s">
@@ -12499,7 +12641,7 @@
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" t="s">
         <v>9</v>
       </c>
       <c r="S16" s="4" t="s">
@@ -12525,7 +12667,7 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" t="s">
         <v>9</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -12551,7 +12693,7 @@
       <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="4" t="s">
@@ -12580,7 +12722,7 @@
       <c r="N19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" t="s">
         <v>9</v>
       </c>
       <c r="U19" s="4" t="s">
@@ -12606,7 +12748,7 @@
       <c r="N20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" t="s">
         <v>9</v>
       </c>
       <c r="U20" s="4" t="s">
@@ -12632,7 +12774,7 @@
       <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" t="s">
         <v>9</v>
       </c>
       <c r="U21" s="4" t="s">
@@ -12658,7 +12800,7 @@
       <c r="N22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" t="s">
         <v>9</v>
       </c>
       <c r="U22" s="4" t="s">
@@ -12684,7 +12826,7 @@
       <c r="N23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" t="s">
         <v>9</v>
       </c>
       <c r="U23" s="4" t="s">
@@ -12710,7 +12852,7 @@
       <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" t="s">
         <v>9</v>
       </c>
       <c r="U24" s="4" t="s">
@@ -12736,7 +12878,7 @@
       <c r="N25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" t="s">
         <v>9</v>
       </c>
       <c r="U25" s="4" t="s">
@@ -12762,7 +12904,7 @@
       <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" t="s">
         <v>9</v>
       </c>
       <c r="U26" s="4" t="s">
@@ -13161,7 +13303,7 @@
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="4" t="s">
@@ -13181,7 +13323,7 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="23" t="s">
+      <c r="P44" t="s">
         <v>9</v>
       </c>
       <c r="S44" s="4" t="s">
@@ -13201,7 +13343,7 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="23" t="s">
+      <c r="P45" t="s">
         <v>9</v>
       </c>
       <c r="S45" s="4" t="s">
@@ -13221,7 +13363,7 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="P46" s="23" t="s">
+      <c r="P46" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="4" t="s">
@@ -13241,7 +13383,7 @@
       <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="P47" s="23" t="s">
+      <c r="P47" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="4" t="s">
@@ -13261,7 +13403,7 @@
       <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="23" t="s">
+      <c r="P48" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="4" t="s">
@@ -13281,7 +13423,7 @@
       <c r="H49" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="23" t="s">
+      <c r="P49" t="s">
         <v>9</v>
       </c>
       <c r="S49" s="4" t="s">
@@ -13301,7 +13443,7 @@
       <c r="I50" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="23" t="s">
+      <c r="P50" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -13324,7 +13466,7 @@
       <c r="N51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R51" s="23" t="s">
+      <c r="R51" t="s">
         <v>9</v>
       </c>
       <c r="U51" s="4" t="s">
@@ -13344,7 +13486,7 @@
       <c r="N52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="23" t="s">
+      <c r="R52" t="s">
         <v>9</v>
       </c>
       <c r="U52" s="4" t="s">
@@ -13364,7 +13506,7 @@
       <c r="N53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R53" s="23" t="s">
+      <c r="R53" t="s">
         <v>9</v>
       </c>
       <c r="U53" s="4" t="s">
@@ -13384,7 +13526,7 @@
       <c r="N54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R54" s="23" t="s">
+      <c r="R54" t="s">
         <v>9</v>
       </c>
       <c r="U54" s="4" t="s">
@@ -13404,7 +13546,7 @@
       <c r="N55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R55" s="23" t="s">
+      <c r="R55" t="s">
         <v>9</v>
       </c>
       <c r="U55" s="4" t="s">
@@ -13424,7 +13566,7 @@
       <c r="N56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R56" s="23" t="s">
+      <c r="R56" t="s">
         <v>9</v>
       </c>
       <c r="U56" s="4" t="s">
@@ -13444,7 +13586,7 @@
       <c r="N57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R57" s="23" t="s">
+      <c r="R57" t="s">
         <v>9</v>
       </c>
       <c r="U57" s="4" t="s">
@@ -13464,7 +13606,7 @@
       <c r="N58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R58" s="23" t="s">
+      <c r="R58" t="s">
         <v>9</v>
       </c>
       <c r="U58" s="4" t="s">

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4572B01-75D1-9340-B312-9DBD9733C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC982BB-C582-B048-90D7-225F5E960BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="59">
   <si>
     <t>Compared to</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>no 6h, 12 predictions, no wind, no renewable share</t>
+  </si>
+  <si>
+    <t>Early Stopping</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,10 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7395,7 +7397,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8252,7 +8254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
@@ -8302,73 +8304,73 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="20" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="20" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="21"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="24"/>
       <c r="AO1" t="s">
         <v>0</v>
       </c>
@@ -8392,11 +8394,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
@@ -10403,90 +10405,90 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
         <v>35</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R38" s="25"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="25"/>
-      <c r="W38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM38" s="23"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="23">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="21"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="21"/>
+      <c r="W38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="19">
         <f>A35</f>
         <v>32</v>
       </c>
-      <c r="AP38" s="23">
+      <c r="AP38" s="19">
         <v>0</v>
       </c>
-      <c r="AQ38" s="23" t="s">
+      <c r="AQ38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="23"/>
-      <c r="AT38" s="23"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10550,37 +10552,37 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="20" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="21"/>
+      <c r="T1" s="24"/>
       <c r="U1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12117,10 +12119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12145,50 +12147,56 @@
     <col min="21" max="21" width="6.83203125" style="4" customWidth="1"/>
     <col min="22" max="22" width="8" style="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="20" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="20" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="15"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -12258,10 +12266,16 @@
       <c r="W2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="X2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12294,17 +12308,20 @@
       <c r="W3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>-1</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12323,17 +12340,20 @@
       <c r="W4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="s">
         <v>39</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>-1</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AE4" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12352,14 +12372,17 @@
       <c r="W5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="s">
         <v>39</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12378,14 +12401,17 @@
       <c r="W6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="s">
         <v>39</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12404,17 +12430,20 @@
       <c r="W7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
         <v>39</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>-1</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12433,17 +12462,20 @@
       <c r="W8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="s">
         <v>39</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>-1</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12462,17 +12494,20 @@
       <c r="W9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
         <v>39</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>-1</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12491,17 +12526,20 @@
       <c r="W10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
         <v>39</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>-1</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12520,14 +12558,17 @@
       <c r="W11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="s">
         <v>39</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12546,17 +12587,20 @@
       <c r="W12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="s">
         <v>39</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>0</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12575,14 +12619,17 @@
       <c r="W13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="s">
         <v>39</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12601,14 +12648,17 @@
       <c r="W14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="s">
         <v>39</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12627,14 +12677,17 @@
       <c r="W15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="s">
         <v>39</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12653,14 +12706,17 @@
       <c r="W16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="s">
         <v>39</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12679,14 +12735,17 @@
       <c r="W17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12705,14 +12764,17 @@
       <c r="W18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="s">
         <v>39</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12731,14 +12793,17 @@
       <c r="W19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="s">
         <v>39</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12757,14 +12822,17 @@
       <c r="W20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="s">
         <v>39</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12783,14 +12851,17 @@
       <c r="W21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="s">
         <v>39</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12809,14 +12880,17 @@
       <c r="W22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="s">
         <v>39</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12835,14 +12909,17 @@
       <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="s">
         <v>39</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12861,14 +12938,17 @@
       <c r="W24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="s">
         <v>39</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12887,14 +12967,17 @@
       <c r="W25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="s">
         <v>39</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12913,14 +12996,17 @@
       <c r="W26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="s">
         <v>39</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12939,15 +13025,18 @@
       <c r="W27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X27">
+      <c r="Y27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12966,15 +13055,18 @@
       <c r="W28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X28">
-        <f t="shared" ref="X28:X34" si="0">A20</f>
+      <c r="Y28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ref="Z28:Z34" si="0">A20</f>
         <v>18</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12993,15 +13085,18 @@
       <c r="W29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X29">
+      <c r="Y29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13020,15 +13115,18 @@
       <c r="W30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X30">
+      <c r="Y30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13047,15 +13145,18 @@
       <c r="W31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X31">
+      <c r="Y31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13074,15 +13175,18 @@
       <c r="W32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X32">
+      <c r="Y32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13101,15 +13205,18 @@
       <c r="W33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X33">
+      <c r="Y33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13128,15 +13235,18 @@
       <c r="W34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X34">
+      <c r="Y34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13155,8 +13265,11 @@
       <c r="V35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13175,8 +13288,11 @@
       <c r="V36" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13195,8 +13311,11 @@
       <c r="V37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13215,8 +13334,11 @@
       <c r="V38" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -13235,8 +13357,11 @@
       <c r="V39" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -13255,8 +13380,11 @@
       <c r="V40" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -13275,8 +13403,11 @@
       <c r="V41" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -13295,8 +13426,11 @@
       <c r="V42" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -13315,8 +13449,11 @@
       <c r="V43" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -13335,8 +13472,11 @@
       <c r="V44" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13355,8 +13495,11 @@
       <c r="V45" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13375,8 +13518,11 @@
       <c r="V46" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y46" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13395,8 +13541,11 @@
       <c r="V47" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13415,8 +13564,11 @@
       <c r="V48" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13435,8 +13587,11 @@
       <c r="V49" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13455,8 +13610,11 @@
       <c r="V50" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13475,8 +13633,11 @@
       <c r="V51" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13495,8 +13656,11 @@
       <c r="V52" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13515,8 +13679,11 @@
       <c r="V53" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13535,8 +13702,11 @@
       <c r="V54" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13555,8 +13725,11 @@
       <c r="V55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13575,8 +13748,11 @@
       <c r="V56" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13595,8 +13771,11 @@
       <c r="V57" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13615,8 +13794,11 @@
       <c r="V58" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13635,8 +13817,11 @@
       <c r="V59" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13655,8 +13840,11 @@
       <c r="V60" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13675,8 +13863,11 @@
       <c r="V61" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13695,8 +13886,11 @@
       <c r="V62" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13715,8 +13909,11 @@
       <c r="V63" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y63" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13735,8 +13932,11 @@
       <c r="V64" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13755,8 +13955,11 @@
       <c r="V65" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13775,9 +13978,234 @@
       <c r="V66" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Y66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z67">
+        <f>A59</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" ref="Z68:Z74" si="1">A60</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="T1:U1"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC982BB-C582-B048-90D7-225F5E960BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F1CAD7-89AC-0B4C-951B-EF5A0329308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="58">
   <si>
     <t>Compared to</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>a*PP+(1-a)*SP</t>
-  </si>
-  <si>
-    <t>longer runtime</t>
   </si>
   <si>
     <t>Demo Transitions</t>
@@ -8252,10 +8249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
-  <dimension ref="A1:AU38"/>
+  <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8302,7 +8299,7 @@
     <col min="40" max="40" width="5.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="23" t="s">
         <v>26</v>
@@ -8375,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -8493,7 +8490,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -8541,7 +8538,7 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="8"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8588,7 +8585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8696,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8804,7 +8801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8858,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8912,14 +8909,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="4" t="s">
@@ -8959,73 +8956,70 @@
         <v>9</v>
       </c>
       <c r="AO11">
-        <f>A10</f>
-        <v>7</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO12">
         <f>A4</f>
         <v>1</v>
       </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO12">
+        <f>A11</f>
+        <v>9</v>
+      </c>
       <c r="AP12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -9039,7 +9033,7 @@
       <c r="O13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -9071,15 +9065,15 @@
       </c>
       <c r="AO13">
         <f>A12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -9093,7 +9087,7 @@
       <c r="O14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="Q14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -9125,20 +9119,17 @@
       </c>
       <c r="AO14">
         <f>A$13</f>
-        <v>10</v>
-      </c>
-      <c r="AP14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
         <v>9</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -9147,7 +9138,7 @@
       <c r="O15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -9156,7 +9147,7 @@
       <c r="V15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="W15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -9178,21 +9169,18 @@
         <v>9</v>
       </c>
       <c r="AO15">
-        <f t="shared" ref="AO15:AO20" si="0">A$13</f>
-        <v>10</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AO15:AO19" si="0">A$13</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -9201,7 +9189,7 @@
       <c r="O16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -9213,7 +9201,7 @@
       <c r="W16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="Z16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC16" s="4" t="s">
@@ -9233,20 +9221,20 @@
       </c>
       <c r="AO16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9255,7 +9243,7 @@
       <c r="O17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="Q17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -9270,7 +9258,7 @@
       <c r="Z17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AE17" s="4" t="s">
@@ -9287,20 +9275,20 @@
       </c>
       <c r="AO17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -9309,7 +9297,7 @@
       <c r="O18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T18" s="4" t="s">
@@ -9327,7 +9315,7 @@
       <c r="AC18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AG18" s="4" t="s">
@@ -9341,10 +9329,10 @@
       </c>
       <c r="AO18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
@@ -9354,7 +9342,7 @@
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>9</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -9363,13 +9351,13 @@
       <c r="O19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -9395,69 +9383,15 @@
       </c>
       <c r="AO19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AP20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -9471,7 +9405,7 @@
       <c r="O21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T21" s="4" t="s">
@@ -9480,10 +9414,10 @@
       <c r="V21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC21" s="4" t="s">
@@ -9500,18 +9434,11 @@
       </c>
       <c r="AM21" t="s">
         <v>9</v>
-      </c>
-      <c r="AO21">
-        <f>A20</f>
-        <v>17</v>
-      </c>
-      <c r="AP21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
@@ -9525,7 +9452,7 @@
       <c r="O22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -9537,7 +9464,7 @@
       <c r="W22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AC22" s="4" t="s">
@@ -9549,25 +9476,16 @@
       <c r="AG22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AH22" s="1" t="s">
+      <c r="AK22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AM22" t="s">
         <v>9</v>
       </c>
-      <c r="AO22">
-        <f>A$20</f>
-        <v>17</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
@@ -9581,7 +9499,7 @@
       <c r="O23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T23" s="4" t="s">
@@ -9596,7 +9514,7 @@
       <c r="Z23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AB23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AE23" s="4" t="s">
@@ -9605,25 +9523,16 @@
       <c r="AG23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AK23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AM23" t="s">
         <v>9</v>
       </c>
-      <c r="AO23">
-        <f t="shared" ref="AO23:AO25" si="1">A$20</f>
-        <v>17</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -9637,7 +9546,7 @@
       <c r="O24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T24" s="4" t="s">
@@ -9655,29 +9564,22 @@
       <c r="AC24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AD24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AG24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AM24" t="s">
         <v>9</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -9691,13 +9593,13 @@
       <c r="O25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="U25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -9712,7 +9614,7 @@
       <c r="AE25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AG25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AK25" s="4" t="s">
@@ -9720,18 +9622,11 @@
       </c>
       <c r="AM25" t="s">
         <v>9</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AP25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
@@ -9766,26 +9661,19 @@
       <c r="AE26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH26" s="1" t="s">
+      <c r="AG26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AM26" t="s">
         <v>9</v>
-      </c>
-      <c r="AO26">
-        <f>A$25</f>
-        <v>22</v>
-      </c>
-      <c r="AP26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -9811,7 +9699,7 @@
       <c r="W27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AC27" s="4" t="s">
@@ -9820,26 +9708,19 @@
       <c r="AE27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AF27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI27" t="s">
+      <c r="AG27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AM27" t="s">
         <v>9</v>
-      </c>
-      <c r="AO27">
-        <f t="shared" ref="AO27:AO28" si="2">A$25</f>
-        <v>22</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -9874,26 +9755,21 @@
       <c r="AE28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AF28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AG28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AM28" t="s">
         <v>9</v>
       </c>
-      <c r="AO28">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AP28">
-        <v>-1</v>
-      </c>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
@@ -9931,23 +9807,18 @@
       <c r="AG29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AK29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO29">
-        <f>A20</f>
-        <v>17</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
+      <c r="AI29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
@@ -9985,28 +9856,21 @@
       <c r="AG30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AK30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO30">
-        <f>A$20</f>
-        <v>17</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AJ30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="4" t="s">
@@ -10036,7 +9900,7 @@
       <c r="AE31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG31" s="4" t="s">
+      <c r="AF31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AK31" s="4" t="s">
@@ -10044,23 +9908,16 @@
       </c>
       <c r="AM31" t="s">
         <v>9</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" ref="AO31" si="3">A$20</f>
-        <v>17</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G32" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -10090,31 +9947,24 @@
       <c r="AE32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AF32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AM32" t="s">
         <v>9</v>
-      </c>
-      <c r="AO32">
-        <f>A31</f>
-        <v>28</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="4" t="s">
@@ -10144,31 +9994,24 @@
       <c r="AE33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK33" s="4" t="s">
+      <c r="AF33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="s">
         <v>9</v>
       </c>
       <c r="AM33" t="s">
         <v>9</v>
-      </c>
-      <c r="AO33">
-        <f>A31</f>
-        <v>28</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I34" t="s">
+      <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -10198,297 +10041,548 @@
       <c r="AE34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK34" s="4" t="s">
+      <c r="AF34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>9</v>
       </c>
       <c r="AM34" t="s">
         <v>9</v>
       </c>
-      <c r="AO34">
-        <f>A33</f>
-        <v>30</v>
-      </c>
-      <c r="AP34">
-        <v>-1</v>
-      </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R35" s="11"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="9">
-        <f>A33</f>
-        <v>30</v>
-      </c>
-      <c r="AP35" s="9">
-        <v>-1</v>
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="11"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41" s="10"/>
+      <c r="V41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="9"/>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>33</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO36">
-        <f>A33</f>
-        <v>30</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>34</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO37">
-        <f>A35</f>
-        <v>32</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="s">
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>35</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="21"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="21"/>
+      <c r="W44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="19"/>
+      <c r="AQ44" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
-        <v>35</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="21"/>
-      <c r="W38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="19">
-        <f>A35</f>
-        <v>32</v>
-      </c>
-      <c r="AP38" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR38" s="19"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10553,25 +10647,25 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="24"/>
       <c r="J1" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="24"/>
       <c r="L1" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
@@ -10580,7 +10674,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="24"/>
       <c r="S1" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" s="24"/>
       <c r="U1" s="14" t="s">
@@ -10617,10 +10711,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -10641,7 +10735,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>6</v>
@@ -10672,16 +10766,16 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3">
         <v>-1</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -10707,7 +10801,7 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -10736,13 +10830,13 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10768,13 +10862,13 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10800,13 +10894,13 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="AA7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10832,13 +10926,13 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V8">
         <v>-1</v>
       </c>
       <c r="AA8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10864,13 +10958,13 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="AA9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10896,13 +10990,13 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -10928,7 +11022,7 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -10957,7 +11051,7 @@
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -10986,7 +11080,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -11015,7 +11109,7 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -11044,7 +11138,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V15">
         <v>-1</v>
@@ -11073,7 +11167,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -11102,7 +11196,7 @@
         <v>9</v>
       </c>
       <c r="U17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -11131,7 +11225,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -11160,7 +11254,7 @@
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19">
         <v>-1</v>
@@ -11189,7 +11283,7 @@
         <v>9</v>
       </c>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V20">
         <v>-1</v>
@@ -11218,7 +11312,7 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V21">
         <v>-1</v>
@@ -11247,7 +11341,7 @@
         <v>9</v>
       </c>
       <c r="U22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -11276,7 +11370,7 @@
         <v>9</v>
       </c>
       <c r="U23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -11305,7 +11399,7 @@
         <v>9</v>
       </c>
       <c r="U24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -11334,7 +11428,7 @@
         <v>9</v>
       </c>
       <c r="U25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -11363,7 +11457,7 @@
         <v>9</v>
       </c>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -11392,7 +11486,7 @@
         <v>9</v>
       </c>
       <c r="U27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -11421,7 +11515,7 @@
         <v>9</v>
       </c>
       <c r="U28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -11450,7 +11544,7 @@
         <v>9</v>
       </c>
       <c r="U29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -11479,7 +11573,7 @@
         <v>9</v>
       </c>
       <c r="U30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -11508,7 +11602,7 @@
         <v>9</v>
       </c>
       <c r="U31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V31">
         <v>-1</v>
@@ -11537,7 +11631,7 @@
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V32">
         <v>-1</v>
@@ -11566,7 +11660,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V33">
         <v>-1</v>
@@ -11595,7 +11689,7 @@
         <v>9</v>
       </c>
       <c r="U34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -11624,7 +11718,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -11653,7 +11747,7 @@
         <v>9</v>
       </c>
       <c r="U36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -11682,7 +11776,7 @@
         <v>9</v>
       </c>
       <c r="U37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -11711,7 +11805,7 @@
         <v>9</v>
       </c>
       <c r="U38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V38">
         <v>-1</v>
@@ -11740,7 +11834,7 @@
         <v>9</v>
       </c>
       <c r="U39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V39">
         <v>-1</v>
@@ -11769,7 +11863,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -11798,7 +11892,7 @@
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -11827,7 +11921,7 @@
         <v>9</v>
       </c>
       <c r="U42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -11856,7 +11950,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V43">
         <v>-1</v>
@@ -11885,7 +11979,7 @@
         <v>9</v>
       </c>
       <c r="U44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -11914,7 +12008,7 @@
         <v>9</v>
       </c>
       <c r="U45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -12121,7 +12215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -12156,7 +12250,7 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -12170,25 +12264,25 @@
       <c r="L1" s="25"/>
       <c r="M1" s="24"/>
       <c r="N1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="25"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R1" s="25"/>
       <c r="S1" s="24"/>
       <c r="T1" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U1" s="24"/>
       <c r="V1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W1" s="24"/>
       <c r="X1" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="24"/>
       <c r="Z1" s="14" t="s">
@@ -12246,13 +12340,13 @@
         <v>4</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>6</v>
@@ -12312,13 +12406,13 @@
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AE3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -12344,13 +12438,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -12376,7 +12470,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -12405,7 +12499,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -12434,13 +12528,13 @@
         <v>9</v>
       </c>
       <c r="Z7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -12466,13 +12560,13 @@
         <v>9</v>
       </c>
       <c r="Z8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -12498,13 +12592,13 @@
         <v>9</v>
       </c>
       <c r="Z9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -12530,13 +12624,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -12562,7 +12656,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -12591,13 +12685,13 @@
         <v>9</v>
       </c>
       <c r="Z12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -12623,7 +12717,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -12652,7 +12746,7 @@
         <v>9</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -12681,7 +12775,7 @@
         <v>9</v>
       </c>
       <c r="Z15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -12710,7 +12804,7 @@
         <v>9</v>
       </c>
       <c r="Z16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -12739,7 +12833,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -12768,7 +12862,7 @@
         <v>9</v>
       </c>
       <c r="Z18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -12797,7 +12891,7 @@
         <v>9</v>
       </c>
       <c r="Z19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -12826,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -12855,7 +12949,7 @@
         <v>9</v>
       </c>
       <c r="Z21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -12884,7 +12978,7 @@
         <v>9</v>
       </c>
       <c r="Z22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -12913,7 +13007,7 @@
         <v>9</v>
       </c>
       <c r="Z23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -12942,7 +13036,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -12971,7 +13065,7 @@
         <v>9</v>
       </c>
       <c r="Z25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -13000,7 +13094,7 @@
         <v>9</v>
       </c>
       <c r="Z26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA26">
         <v>-1</v>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F1CAD7-89AC-0B4C-951B-EF5A0329308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD73CE-AC3E-4A44-803C-2E1F50D1854A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="61">
   <si>
     <t>Compared to</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>no6-12</t>
+  </si>
+  <si>
+    <t>+nowind</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,6 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8249,10 +8262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
-  <dimension ref="A1:AU44"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8277,29 +8290,30 @@
     <col min="18" max="18" width="7" style="4" customWidth="1"/>
     <col min="19" max="19" width="5" style="1" customWidth="1"/>
     <col min="20" max="20" width="5.83203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="3" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.1640625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="4" customWidth="1"/>
-    <col min="30" max="30" width="4.83203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="3.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.83203125" style="4" customWidth="1"/>
-    <col min="34" max="34" width="5.33203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" customWidth="1"/>
-    <col min="37" max="37" width="5.83203125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="5.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.83203125" customWidth="1"/>
-    <col min="40" max="40" width="5.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="26" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="3" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="4" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8" style="4" customWidth="1"/>
+    <col min="31" max="31" width="4.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="3.5" style="1" customWidth="1"/>
+    <col min="34" max="34" width="3.83203125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="5.33203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" customWidth="1"/>
+    <col min="38" max="38" width="5.83203125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="5.83203125" customWidth="1"/>
+    <col min="41" max="41" width="5.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="23" t="s">
         <v>26</v>
@@ -8335,44 +8349,45 @@
       <c r="U1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="23" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="23" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="25"/>
       <c r="AJ1" s="25"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="23" t="s">
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" t="s">
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -8430,67 +8445,70 @@
         <v>13</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>1024</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>256</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>1024</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>0.96</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.97</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0.98</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AL2" s="4">
         <v>0.99</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -8518,27 +8536,28 @@
       <c r="S3" s="6"/>
       <c r="T3" s="8"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="6"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="8"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="8"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8560,32 +8579,32 @@
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="W4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8607,39 +8626,39 @@
       <c r="S5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5">
+      <c r="W5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8661,39 +8680,39 @@
       <c r="S6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6">
+      <c r="W6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8715,39 +8734,39 @@
       <c r="S7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7">
+      <c r="W7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7">
         <f>A6</f>
         <v>3</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8769,39 +8788,39 @@
       <c r="S8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO8">
+      <c r="W8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8">
         <f>A7</f>
         <v>4</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8823,39 +8842,39 @@
       <c r="S9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO9">
+      <c r="W9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9">
         <f>A8</f>
         <v>5</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8877,39 +8896,39 @@
       <c r="T10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO10">
+      <c r="W10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP10">
         <f>A9</f>
         <v>6</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8931,39 +8950,39 @@
       <c r="T11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO11">
+      <c r="W11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP11">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8985,39 +9004,39 @@
       <c r="T12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO12">
+      <c r="W12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP12">
         <f>A11</f>
         <v>9</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9039,39 +9058,39 @@
       <c r="T13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO13">
+      <c r="W13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP13">
         <f>A12</f>
         <v>10</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9093,36 +9112,36 @@
       <c r="T14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO14">
+      <c r="W14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP14">
         <f>A$13</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9144,36 +9163,39 @@
       <c r="T15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" ref="AO15:AO19" si="0">A$13</f>
+      <c r="W15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" ref="AP15:AP19" si="0">A$13</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9195,39 +9217,39 @@
       <c r="T16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO16">
+      <c r="W16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9249,39 +9271,42 @@
       <c r="T17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO17">
+      <c r="W17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AR17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9303,41 +9328,41 @@
       <c r="T18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO18">
+      <c r="W18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -9357,46 +9382,100 @@
       <c r="T19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO19">
+      <c r="W19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP20">
+        <f>A18</f>
+        <v>16</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -9405,1198 +9484,1251 @@
       <c r="O21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="Q21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="V21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP21">
+        <f>A18</f>
+        <v>16</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>14</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>16</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>17</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>18</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>19</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>20</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>21</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>23</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>24</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>25</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>26</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>27</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>28</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>29</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>30</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="D45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>31</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="D46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>32</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" s="11"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U47" s="10"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>33</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>34</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ43" t="s">
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
         <v>35</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V44" s="21"/>
-      <c r="W44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="19"/>
-      <c r="AQ44" s="19" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="21"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50" s="28"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="19"/>
+      <c r="AL50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="19"/>
+      <c r="AR50" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AR44" s="19"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="19"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
+      <c r="AU50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD73CE-AC3E-4A44-803C-2E1F50D1854A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AD010-6121-A042-9ACE-9596E59E67F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="61">
   <si>
     <t>Compared to</t>
   </si>
@@ -8265,7 +8265,7 @@
   <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="AM34" sqref="AM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9302,11 +9302,8 @@
       <c r="AQ17">
         <v>1</v>
       </c>
-      <c r="AR17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9359,8 +9356,11 @@
       <c r="AQ18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AR18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9522,7 +9522,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
@@ -9565,10 +9568,14 @@
       <c r="AN22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP22">
+        <f>A$20</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
@@ -9612,10 +9619,17 @@
       <c r="AN23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP23">
+        <f t="shared" ref="AP23:AP32" si="1">A$20</f>
+        <v>18</v>
+      </c>
+      <c r="AQ23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -9659,10 +9673,17 @@
       <c r="AN24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -9706,15 +9727,296 @@
       <c r="AN25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="4" t="s">
@@ -9723,7 +10025,7 @@
       <c r="O31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="Q31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="4" t="s">
@@ -9744,24 +10046,31 @@
       <c r="AF31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AH31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL31" s="4" t="s">
+      <c r="AG31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>9</v>
       </c>
       <c r="AN31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>9</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -9776,7 +10085,7 @@
       <c r="T32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="U32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -9791,24 +10100,31 @@
       <c r="AF32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AH32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL32" s="4" t="s">
+      <c r="AG32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK32" t="s">
         <v>9</v>
       </c>
       <c r="AN32" t="s">
         <v>9</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ32">
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="4" t="s">
@@ -9823,13 +10139,13 @@
       <c r="T33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="U33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB33" s="4" t="s">
+      <c r="AA33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AD33" s="4" t="s">
@@ -9844,18 +10160,18 @@
       <c r="AL33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AM33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>9</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -9870,7 +10186,7 @@
       <c r="T34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="U34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -9888,581 +10204,18 @@
       <c r="AH34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AI34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
+      <c r="AL34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO34" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>9</v>
-      </c>
       <c r="AU35" s="17"/>
       <c r="AV35" s="17"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>22</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>23</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>24</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>25</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>26</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>27</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>28</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>29</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>30</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>31</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="43" spans="1:48" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>32</v>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AD010-6121-A042-9ACE-9596E59E67F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A739D-C581-7643-ADB5-4BBF6CF34056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -8265,7 +8265,7 @@
   <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM34" sqref="AM34"/>
+      <selection activeCell="AQ35" sqref="AQ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9620,7 +9620,7 @@
         <v>9</v>
       </c>
       <c r="AP23">
-        <f t="shared" ref="AP23:AP32" si="1">A$20</f>
+        <f t="shared" ref="AP23:AP34" si="1">A$20</f>
         <v>18</v>
       </c>
       <c r="AQ23">
@@ -10163,6 +10163,13 @@
       <c r="AM33" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AP33">
+        <f>A20</f>
+        <v>18</v>
+      </c>
+      <c r="AQ33">
+        <v>-1</v>
+      </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -10209,6 +10216,13 @@
       </c>
       <c r="AO34" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.2">

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A739D-C581-7643-ADB5-4BBF6CF34056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025E5C0-01C4-4F4C-A231-AA6EB955A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -8265,7 +8265,7 @@
   <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ35" sqref="AQ35"/>
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9571,6 +9571,9 @@
       <c r="AP22">
         <f>A$20</f>
         <v>18</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025E5C0-01C4-4F4C-A231-AA6EB955A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CD8B6-4E66-884C-8D4F-14DA78841BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -8264,8 +8264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
   <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9140,6 +9140,9 @@
         <f>A$13</f>
         <v>11</v>
       </c>
+      <c r="AQ14">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -10513,9 +10516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomLeft" activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10956,7 +10959,7 @@
         <v>38</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -11797,7 +11800,7 @@
         <v>38</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -11942,9 +11945,6 @@
         <f>A22</f>
         <v>20</v>
       </c>
-      <c r="V46">
-        <v>-1</v>
-      </c>
       <c r="W46" s="17"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -11973,9 +11973,6 @@
         <f t="shared" ref="U47:U51" si="0">A23</f>
         <v>21</v>
       </c>
-      <c r="V47">
-        <v>-1</v>
-      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
@@ -12003,11 +12000,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="V48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -12033,11 +12027,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -12063,11 +12054,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="V50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -12092,9 +12080,6 @@
       <c r="U51">
         <f t="shared" si="0"/>
         <v>25</v>
-      </c>
-      <c r="V51">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CD8B6-4E66-884C-8D4F-14DA78841BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFB828F-E54D-8545-B0B5-E41F682660F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="59">
   <si>
     <t>Compared to</t>
   </si>
@@ -157,9 +157,6 @@
     <t>SAC</t>
   </si>
   <si>
-    <t>lernt nichts</t>
-  </si>
-  <si>
     <t>Mode 1</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>B5 (incl)</t>
   </si>
   <si>
-    <t>pv schlechter</t>
-  </si>
-  <si>
     <t>Pretrained demo</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>no 6h, 12 predictions, no wind, no renewable share</t>
   </si>
   <si>
-    <t>Early Stopping</t>
-  </si>
-  <si>
     <t>no6-12</t>
   </si>
   <si>
@@ -221,6 +212,9 @@
   </si>
   <si>
     <t>BEST</t>
+  </si>
+  <si>
+    <t>B5</t>
   </si>
 </sst>
 </file>
@@ -268,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -395,11 +389,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,6 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +476,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>65078</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>8716</xdr:rowOff>
@@ -794,7 +802,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>298037</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>8717</xdr:rowOff>
@@ -941,7 +949,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>330201</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>10821</xdr:rowOff>
@@ -1088,7 +1096,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>35020</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>46295</xdr:rowOff>
@@ -1428,7 +1436,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1908307</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>40883</xdr:rowOff>
@@ -2042,7 +2050,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>27504</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>23745</xdr:rowOff>
@@ -2376,7 +2384,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>15030</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15030</xdr:rowOff>
@@ -3011,7 +3019,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>17134</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>17135</xdr:rowOff>
@@ -3646,7 +3654,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>29608</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25849</xdr:rowOff>
@@ -3980,7 +3988,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>17134</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>17134</xdr:rowOff>
@@ -4615,7 +4623,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>19238</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19239</xdr:rowOff>
@@ -5250,7 +5258,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>15030</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>52603</xdr:rowOff>
@@ -5856,7 +5864,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>17135</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47193</xdr:rowOff>
@@ -6462,7 +6470,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>22094</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>33367</xdr:rowOff>
@@ -6788,7 +6796,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1908758</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>37574</xdr:rowOff>
@@ -7407,7 +7415,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8445,10 +8453,10 @@
         <v>13</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>7</v>
@@ -9360,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="AR18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
@@ -10405,7 +10413,7 @@
         <v>9</v>
       </c>
       <c r="AR49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
@@ -10483,7 +10491,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AS50" s="19"/>
       <c r="AT50" s="19"/>
@@ -10514,11 +10522,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V46" sqref="V46"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10532,24 +10540,25 @@
     <col min="7" max="7" width="4.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="6.83203125" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="1.83203125" customWidth="1"/>
-    <col min="25" max="25" width="3" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" customWidth="1"/>
-    <col min="27" max="27" width="26.33203125" customWidth="1"/>
-    <col min="28" max="28" width="39.1640625" customWidth="1"/>
-    <col min="29" max="29" width="34.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="1.83203125" customWidth="1"/>
+    <col min="26" max="26" width="3" customWidth="1"/>
+    <col min="27" max="27" width="3.1640625" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" customWidth="1"/>
+    <col min="29" max="29" width="39.1640625" customWidth="1"/>
+    <col min="30" max="30" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="23" t="s">
         <v>31</v>
@@ -10566,28 +10575,29 @@
       <c r="H1" s="25"/>
       <c r="I1" s="24"/>
       <c r="J1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="14" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -10618,40 +10628,43 @@
       <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>3</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>4</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>5</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>6</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -10661,29 +10674,29 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-1</v>
       </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -10696,23 +10709,23 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
         <v>38</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -10725,26 +10738,26 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
         <v>38</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0</v>
       </c>
-      <c r="AA5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -10757,26 +10770,26 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
         <v>38</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="AA6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -10789,26 +10802,26 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="L7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-1</v>
       </c>
-      <c r="AA7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -10821,26 +10834,26 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
         <v>38</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-1</v>
       </c>
-      <c r="AA8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -10853,26 +10866,26 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="L9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
         <v>38</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-1</v>
       </c>
-      <c r="AA9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -10885,26 +10898,26 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="L10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
         <v>38</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0</v>
       </c>
-      <c r="AA10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -10917,23 +10930,23 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="L11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -10946,23 +10959,23 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="L12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -10975,23 +10988,23 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="L13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
         <v>38</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -11004,23 +11017,23 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" t="s">
         <v>38</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -11033,23 +11046,23 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="L15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" t="s">
         <v>38</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -11062,23 +11075,23 @@
       <c r="I16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="L16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
         <v>38</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -11091,23 +11104,23 @@
       <c r="I17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="L17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" t="s">
         <v>38</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -11120,23 +11133,23 @@
       <c r="I18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" t="s">
         <v>38</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -11149,23 +11162,23 @@
       <c r="I19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="L19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" t="s">
         <v>38</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -11178,23 +11191,23 @@
       <c r="I20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="L20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
         <v>38</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -11207,23 +11220,23 @@
       <c r="I21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="L21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
         <v>38</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -11236,23 +11249,23 @@
       <c r="I22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="L22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
         <v>38</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -11265,23 +11278,23 @@
       <c r="I23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="L23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" t="s">
         <v>38</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -11294,23 +11307,23 @@
       <c r="I24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="L24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" t="s">
         <v>38</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -11323,23 +11336,23 @@
       <c r="I25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="L25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" t="s">
         <v>38</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -11352,23 +11365,23 @@
       <c r="I26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="L26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" t="s">
         <v>38</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -11381,23 +11394,23 @@
       <c r="I27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>9</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="L27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" t="s">
         <v>38</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -11413,20 +11426,20 @@
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="M28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" t="s">
         <v>38</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -11442,20 +11455,20 @@
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="N29" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" t="s">
         <v>38</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -11471,20 +11484,20 @@
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="O30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" t="s">
         <v>38</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -11500,20 +11513,20 @@
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O31" t="s">
-        <v>9</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="P31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" t="s">
         <v>38</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -11529,20 +11542,20 @@
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P32" t="s">
-        <v>9</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="Q32" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" t="s">
         <v>38</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -11558,20 +11571,20 @@
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="R33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" t="s">
         <v>38</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -11587,20 +11600,20 @@
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="M34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" t="s">
         <v>38</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -11616,20 +11629,20 @@
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M35" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="N35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" t="s">
         <v>38</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -11645,20 +11658,20 @@
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="O36" t="s">
+        <v>9</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" t="s">
         <v>38</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -11674,20 +11687,20 @@
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O37" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="P37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" t="s">
         <v>38</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -11703,20 +11716,20 @@
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="Q38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" t="s">
         <v>38</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -11732,20 +11745,20 @@
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="R39" t="s">
+        <v>9</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" t="s">
         <v>38</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -11761,20 +11774,20 @@
       <c r="J40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="M40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" t="s">
         <v>38</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>39</v>
       </c>
@@ -11790,20 +11803,20 @@
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M41" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="N41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" t="s">
         <v>38</v>
       </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -11819,20 +11832,20 @@
       <c r="J42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="O42" t="s">
+        <v>9</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" t="s">
         <v>38</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -11848,20 +11861,20 @@
       <c r="J43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O43" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="P43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" t="s">
         <v>38</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -11877,20 +11890,20 @@
       <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P44" t="s">
-        <v>9</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="Q44" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" t="s">
         <v>38</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -11906,20 +11919,20 @@
       <c r="J45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" t="s">
-        <v>9</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="R45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" t="s">
         <v>38</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -11932,22 +11945,22 @@
       <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U46">
+      <c r="L46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46">
         <f>A22</f>
         <v>20</v>
       </c>
-      <c r="W46" s="17"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="17"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -11960,21 +11973,21 @@
       <c r="I47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U47">
-        <f t="shared" ref="U47:U51" si="0">A23</f>
+      <c r="L47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ref="V47:V51" si="0">A23</f>
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>46</v>
       </c>
@@ -11987,21 +12000,21 @@
       <c r="I48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" t="s">
-        <v>9</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U48">
+      <c r="L48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -12014,21 +12027,21 @@
       <c r="I49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O49" t="s">
-        <v>9</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U49">
+      <c r="L49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V49">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>48</v>
       </c>
@@ -12041,21 +12054,21 @@
       <c r="I50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U50">
+      <c r="L50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -12068,28 +12081,550 @@
       <c r="I51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>9</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U51">
+      <c r="L51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" t="s">
+        <v>38</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" t="s">
+        <v>9</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" t="s">
+        <v>38</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O54" t="s">
+        <v>9</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" t="s">
+        <v>9</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>9</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V56" t="s">
+        <v>38</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" t="s">
+        <v>9</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V57" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" t="s">
+        <v>38</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>9</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" t="s">
+        <v>38</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V60" t="s">
+        <v>38</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V61" t="s">
+        <v>38</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>9</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V62" t="s">
+        <v>38</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R63" t="s">
+        <v>9</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V63" t="s">
+        <v>38</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V64" t="s">
+        <v>38</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>9</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V65" t="s">
+        <v>38</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O66" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V66" t="s">
+        <v>38</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>65</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" t="s">
+        <v>9</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V67" t="s">
+        <v>38</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>66</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>9</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V68" t="s">
+        <v>38</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
+        <v>67</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="R69" t="s">
+        <v>9</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V69" t="s">
+        <v>38</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="M1:S1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12100,42 +12635,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" customWidth="1"/>
-    <col min="21" max="21" width="6.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="8" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="4" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
       <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
@@ -12143,2055 +12673,1479 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="K1" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="L1" s="25"/>
       <c r="M1" s="24"/>
-      <c r="N1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="14" t="s">
+      <c r="N1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="15"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="C2" s="7">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F2" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7">
         <v>4</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="K2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="M2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
         <v>38</v>
       </c>
-      <c r="AA3">
+      <c r="S3">
         <v>-1</v>
       </c>
-      <c r="AE3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="AA5">
+      <c r="S5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="E6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="F7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
         <v>38</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
         <v>38</v>
       </c>
-      <c r="AA9">
+      <c r="S9">
         <v>-1</v>
       </c>
-      <c r="AB9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="O10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
         <v>38</v>
       </c>
-      <c r="AA10">
+      <c r="S10">
         <v>-1</v>
       </c>
-      <c r="AB10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="D11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
         <v>38</v>
       </c>
-      <c r="AA11">
+      <c r="S11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="E12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
         <v>38</v>
       </c>
-      <c r="AA12">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="AB12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="F13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" t="s">
         <v>38</v>
       </c>
-      <c r="AA13">
+      <c r="S13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="s">
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
         <v>38</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
         <v>38</v>
       </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="C16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
         <v>38</v>
       </c>
-      <c r="AA16">
+      <c r="S16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="D17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" t="s">
         <v>38</v>
       </c>
-      <c r="AA17">
+      <c r="S17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="s">
+      <c r="E18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" t="s">
         <v>38</v>
       </c>
-      <c r="AA18">
+      <c r="S18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="F19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="s">
         <v>38</v>
       </c>
-      <c r="AA19">
+      <c r="S19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="s">
         <v>38</v>
       </c>
-      <c r="AA20">
+      <c r="S20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="s">
         <v>38</v>
       </c>
-      <c r="AA21">
+      <c r="S21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="C22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R22" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="s">
         <v>38</v>
       </c>
-      <c r="AA22">
+      <c r="S22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="D23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="s">
         <v>38</v>
       </c>
-      <c r="AA23">
+      <c r="S23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="E24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>9</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="s">
         <v>38</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="F25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="s">
         <v>38</v>
       </c>
-      <c r="AA25">
+      <c r="S25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="G26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R26" t="s">
-        <v>9</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="s">
         <v>38</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z27">
-        <f>A19</f>
-        <v>17</v>
-      </c>
-      <c r="AA27">
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" ref="Z28:Z34" si="0">A20</f>
-        <v>18</v>
-      </c>
-      <c r="AA28">
+      <c r="C28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AA29">
+      <c r="D29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AA30">
+      <c r="E30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AA31">
+      <c r="F31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AA33">
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AA34">
+      <c r="C34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" t="s">
-        <v>9</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" t="s">
-        <v>9</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F37" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="O39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="O41" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P43" t="s">
-        <v>9</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F43" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44" t="s">
-        <v>9</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="P46" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R46" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" t="s">
-        <v>9</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D47" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48" t="s">
-        <v>9</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E48" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49" t="s">
-        <v>9</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" t="s">
+        <v>38</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y50" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R51" t="s">
-        <v>9</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R52" t="s">
-        <v>9</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R53" t="s">
-        <v>9</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R54" t="s">
-        <v>9</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R55" t="s">
-        <v>9</v>
-      </c>
-      <c r="U55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="G56" t="s">
-        <v>9</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R56" t="s">
-        <v>9</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y56" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R57" t="s">
-        <v>9</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="I58" t="s">
-        <v>9</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R58" t="s">
-        <v>9</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y59" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y61" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y62" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y63" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="G64" t="s">
-        <v>9</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y64" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y65" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y66" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z67">
-        <f>A59</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" ref="Z68:Z74" si="1">A60</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z69">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z70">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z71">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z72">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="H73" t="s">
-        <v>9</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z73">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="Q1:S1"/>
+  <mergeCells count="5">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFB828F-E54D-8545-B0B5-E41F682660F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D014A6-4239-1E45-9A18-8AAF849F630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -10524,9 +10524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
   <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11942,7 +11942,7 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="H46" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -11955,8 +11955,11 @@
         <v>9</v>
       </c>
       <c r="V46">
-        <f>A22</f>
-        <v>20</v>
+        <f>A10</f>
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
       </c>
       <c r="X46" s="17"/>
     </row>
@@ -11970,7 +11973,7 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" t="s">
         <v>9</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -11983,8 +11986,11 @@
         <v>9</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47:V51" si="0">A23</f>
-        <v>21</v>
+        <f t="shared" ref="V47:V51" si="0">A11</f>
+        <v>9</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -11997,7 +12003,7 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="H48" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -12011,7 +12017,10 @@
       </c>
       <c r="V48">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -12024,7 +12033,7 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="H49" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -12038,7 +12047,10 @@
       </c>
       <c r="V49">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -12051,7 +12063,7 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="H50" t="s">
         <v>9</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -12065,7 +12077,10 @@
       </c>
       <c r="V50">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -12078,7 +12093,7 @@
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="H51" t="s">
         <v>9</v>
       </c>
       <c r="L51" s="4" t="s">
@@ -12092,7 +12107,10 @@
       </c>
       <c r="V51">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -12637,7 +12655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D014A6-4239-1E45-9A18-8AAF849F630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072E96B-092D-C741-867F-47AB5E4D131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="59">
   <si>
     <t>Compared to</t>
   </si>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,10 +447,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +474,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>65078</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>8716</xdr:rowOff>
@@ -802,7 +800,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>298037</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>8717</xdr:rowOff>
@@ -949,7 +947,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>330201</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>10821</xdr:rowOff>
@@ -1096,7 +1094,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>35020</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>46295</xdr:rowOff>
@@ -1436,7 +1434,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>1908307</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>40883</xdr:rowOff>
@@ -2050,7 +2048,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>27504</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>23745</xdr:rowOff>
@@ -2384,7 +2382,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>15030</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15030</xdr:rowOff>
@@ -3019,7 +3017,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>17134</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>17135</xdr:rowOff>
@@ -3654,7 +3652,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>29608</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25849</xdr:rowOff>
@@ -3988,7 +3986,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>17134</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>17134</xdr:rowOff>
@@ -4623,14 +4621,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>19238</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5111,7 +5109,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5258,7 +5256,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>15030</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>52603</xdr:rowOff>
@@ -5864,7 +5862,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>17135</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47193</xdr:rowOff>
@@ -6470,7 +6468,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>22094</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>33367</xdr:rowOff>
@@ -6796,14 +6794,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>1908758</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>37574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3164178" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -7315,7 +7313,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -8299,7 +8297,7 @@
     <col min="19" max="19" width="5" style="1" customWidth="1"/>
     <col min="20" max="20" width="5.83203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="7.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="26" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" style="4" customWidth="1"/>
     <col min="24" max="24" width="3" style="1" customWidth="1"/>
     <col min="25" max="25" width="3.5" customWidth="1"/>
@@ -8323,74 +8321,74 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="23" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="23" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="23" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="23" t="s">
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="23" t="s">
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="24"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="25"/>
       <c r="AP1" t="s">
         <v>0</v>
       </c>
@@ -8414,11 +8412,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
@@ -8455,7 +8453,7 @@
       <c r="U2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="18" t="s">
         <v>56</v>
       </c>
       <c r="W2" s="4" t="s">
@@ -9501,7 +9499,7 @@
       <c r="T21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V21" s="26" t="s">
+      <c r="V21" t="s">
         <v>9</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -10280,7 +10278,7 @@
         <v>9</v>
       </c>
       <c r="U47" s="10"/>
-      <c r="V47" s="27"/>
+      <c r="V47" s="9"/>
       <c r="W47" s="11" t="s">
         <v>9</v>
       </c>
@@ -10454,7 +10452,7 @@
       <c r="U50" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V50" s="28"/>
+      <c r="V50" s="19"/>
       <c r="W50" s="21"/>
       <c r="X50" s="20" t="s">
         <v>9</v>
@@ -10522,11 +10520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10535,76 +10533,78 @@
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.83203125" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="1.83203125" customWidth="1"/>
-    <col min="26" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="3.1640625" customWidth="1"/>
-    <col min="28" max="28" width="26.33203125" customWidth="1"/>
-    <col min="29" max="29" width="39.1640625" customWidth="1"/>
-    <col min="30" max="30" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" customWidth="1"/>
+    <col min="25" max="25" width="4.5" customWidth="1"/>
+    <col min="26" max="26" width="1.83203125" customWidth="1"/>
+    <col min="27" max="27" width="3" customWidth="1"/>
+    <col min="28" max="28" width="3.1640625" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" customWidth="1"/>
+    <col min="30" max="30" width="39.1640625" customWidth="1"/>
+    <col min="31" max="31" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="23" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X1" s="15"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6">
@@ -10613,90 +10613,93 @@
       <c r="E2" s="7">
         <v>0.2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>6</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W2" s="7"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="H3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-1</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -10706,26 +10709,26 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
         <v>38</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -10735,29 +10738,29 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" t="s">
         <v>38</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -10767,29 +10770,29 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
         <v>38</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -10799,29 +10802,29 @@
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
         <v>38</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-1</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -10831,29 +10834,29 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" t="s">
         <v>38</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-1</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -10863,695 +10866,677 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
         <v>38</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-1</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="E10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
         <v>38</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="E11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
         <v>38</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="E12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" t="s">
         <v>38</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="E13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
         <v>38</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="E14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" t="s">
         <v>38</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="E15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" t="s">
         <v>38</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="F16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" t="s">
         <v>38</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="F17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" t="s">
         <v>38</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="F18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" t="s">
         <v>38</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" t="s">
         <v>38</v>
       </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" t="s">
         <v>38</v>
       </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" t="s">
         <v>38</v>
       </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" t="s">
         <v>38</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" t="s">
         <v>38</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" t="s">
-        <v>9</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" t="s">
         <v>38</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" t="s">
         <v>38</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>9</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" t="s">
         <v>38</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" t="s">
-        <v>9</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" t="s">
         <v>38</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="E28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W28" t="s">
         <v>38</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="E29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" t="s">
         <v>38</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O30" t="s">
-        <v>9</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="E30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W30" t="s">
         <v>38</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="E31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" t="s">
         <v>38</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="E32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" t="s">
         <v>38</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-1</v>
       </c>
     </row>
@@ -11562,25 +11547,25 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V33" t="s">
+      <c r="E33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" t="s">
         <v>38</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-1</v>
       </c>
     </row>
@@ -11591,26 +11576,23 @@
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V34" t="s">
+      <c r="F34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" t="s">
         <v>38</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -11620,26 +11602,23 @@
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N35" t="s">
-        <v>9</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="F35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" t="s">
         <v>38</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -11649,26 +11628,23 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" t="s">
-        <v>9</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="F36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" t="s">
         <v>38</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -11678,26 +11654,23 @@
       <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" t="s">
-        <v>9</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V37" t="s">
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" t="s">
         <v>38</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -11707,26 +11680,23 @@
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" t="s">
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W38" t="s">
         <v>38</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
@@ -11736,26 +11706,23 @@
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R39" t="s">
-        <v>9</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V39" t="s">
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" t="s">
         <v>38</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -11765,25 +11732,25 @@
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" t="s">
         <v>38</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0</v>
       </c>
     </row>
@@ -11794,25 +11761,25 @@
       <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" t="s">
-        <v>9</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V41" t="s">
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" t="s">
         <v>38</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0</v>
       </c>
     </row>
@@ -11823,25 +11790,25 @@
       <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" t="s">
         <v>38</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0</v>
       </c>
     </row>
@@ -11852,25 +11819,25 @@
       <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P43" t="s">
-        <v>9</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V43" t="s">
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" t="s">
         <v>38</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-1</v>
       </c>
     </row>
@@ -11881,26 +11848,26 @@
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>9</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V44" t="s">
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" t="s">
         <v>38</v>
       </c>
-      <c r="W44">
-        <v>0</v>
+      <c r="X44">
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -11910,26 +11877,26 @@
       <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R45" t="s">
-        <v>9</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V45" t="s">
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" t="s">
         <v>38</v>
       </c>
-      <c r="W45">
-        <v>0</v>
+      <c r="X45">
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -11939,29 +11906,27 @@
       <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V46">
-        <f>A10</f>
-        <v>8</v>
-      </c>
-      <c r="W46">
+      <c r="E46" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W46" t="s">
+        <v>38</v>
+      </c>
+      <c r="X46">
         <v>0</v>
       </c>
-      <c r="X46" s="17"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
@@ -11970,26 +11935,25 @@
       <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" t="s">
-        <v>9</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V47">
-        <f t="shared" ref="V47:V51" si="0">A11</f>
-        <v>9</v>
-      </c>
-      <c r="W47">
+      <c r="E47" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W47" t="s">
+        <v>38</v>
+      </c>
+      <c r="X47">
         <v>0</v>
       </c>
     </row>
@@ -12000,649 +11964,1156 @@
       <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O48" t="s">
-        <v>9</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V48">
+      <c r="E48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" t="s">
+        <v>38</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>9</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W49" t="s">
+        <v>38</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S51" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W51" t="s">
+        <v>38</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W52" t="s">
+        <v>38</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W53" t="s">
+        <v>38</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P54" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W54" t="s">
+        <v>38</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>53</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W55" t="s">
+        <v>38</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" t="s">
+        <v>9</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W56" t="s">
+        <v>38</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S57" t="s">
+        <v>9</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W57" t="s">
+        <v>38</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>58</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P60" t="s">
+        <v>9</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>59</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W61">
+        <f>A10</f>
+        <v>8</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="17"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>60</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" t="s">
+        <v>9</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W62">
+        <f t="shared" ref="W62:W66" si="0">A11</f>
+        <v>9</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>61</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" t="s">
+        <v>9</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W63">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W48">
+      <c r="X63">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V49">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>62</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>9</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W64">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W49">
+      <c r="X64">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>9</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V50">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>63</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R65" t="s">
+        <v>9</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W65">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W50">
+      <c r="X65">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
-        <v>49</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V51">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>64</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S66" t="s">
+        <v>9</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W66">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W51">
+      <c r="X66">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V52" t="s">
-        <v>38</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" t="s">
-        <v>9</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V53" t="s">
-        <v>38</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
-        <v>52</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O54" t="s">
-        <v>9</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V54" t="s">
-        <v>38</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
-        <v>53</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P55" t="s">
-        <v>9</v>
-      </c>
-      <c r="U55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V55" t="s">
-        <v>38</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
-        <v>54</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>9</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V56" t="s">
-        <v>38</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
-        <v>55</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="R57" t="s">
-        <v>9</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V57" t="s">
-        <v>38</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
-        <v>56</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V58" t="s">
-        <v>38</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
-        <v>57</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" t="s">
-        <v>9</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V59" t="s">
-        <v>38</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
-        <v>58</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O60" t="s">
-        <v>9</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V60" t="s">
-        <v>38</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
-        <v>59</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P61" t="s">
-        <v>9</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V61" t="s">
-        <v>38</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
-        <v>60</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>9</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V62" t="s">
-        <v>38</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
-        <v>61</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="R63" t="s">
-        <v>9</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V63" t="s">
-        <v>38</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
-        <v>62</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V64" t="s">
-        <v>38</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
-        <v>63</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>9</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V65" t="s">
-        <v>38</v>
-      </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
-        <v>64</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="O66" t="s">
-        <v>9</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V66" t="s">
-        <v>38</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P67" t="s">
-        <v>9</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V67" t="s">
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67" t="s">
         <v>38</v>
       </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>9</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V68" t="s">
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" t="s">
+        <v>9</v>
+      </c>
+      <c r="O68" t="s">
+        <v>9</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W68" t="s">
         <v>38</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="R69" t="s">
-        <v>9</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V69" t="s">
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69" t="s">
+        <v>9</v>
+      </c>
+      <c r="P69" t="s">
+        <v>9</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W69" t="s">
         <v>38</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>68</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>9</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>69</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71" t="s">
+        <v>9</v>
+      </c>
+      <c r="R71" t="s">
+        <v>9</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W71" t="s">
+        <v>38</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>70</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72" t="s">
+        <v>9</v>
+      </c>
+      <c r="S72" t="s">
+        <v>9</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W72" t="s">
+        <v>38</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
+        <v>71</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W73" t="s">
+        <v>38</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
+      </c>
+      <c r="O74" t="s">
+        <v>9</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W74" t="s">
+        <v>38</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" t="s">
+        <v>9</v>
+      </c>
+      <c r="P75" t="s">
+        <v>9</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W75" t="s">
+        <v>38</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>74</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>9</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W76" t="s">
+        <v>38</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
+        <v>75</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" t="s">
+        <v>9</v>
+      </c>
+      <c r="R77" t="s">
+        <v>9</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W77" t="s">
+        <v>38</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>76</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" t="s">
+        <v>9</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W78" t="s">
+        <v>38</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
+        <v>77</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" t="s">
+        <v>9</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W79" t="s">
+        <v>38</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
+        <v>78</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" t="s">
+        <v>9</v>
+      </c>
+      <c r="O80" t="s">
+        <v>9</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W80" t="s">
+        <v>38</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="13">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P81" t="s">
+        <v>9</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W81" t="s">
+        <v>38</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
+        <v>80</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>9</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W82" t="s">
+        <v>38</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="13">
+        <v>81</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
+      </c>
+      <c r="R83" t="s">
+        <v>9</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W83" t="s">
+        <v>38</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="13">
+        <v>82</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" t="s">
+        <v>9</v>
+      </c>
+      <c r="S84" t="s">
+        <v>9</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W84" t="s">
+        <v>38</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="13">
+        <v>83</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="13">
+        <v>84</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" t="s">
+        <v>9</v>
+      </c>
+      <c r="O86" t="s">
+        <v>9</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>85</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" t="s">
+        <v>9</v>
+      </c>
+      <c r="P87" t="s">
+        <v>9</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W87" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12663,10 +13134,10 @@
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" customWidth="1"/>
@@ -12684,39 +13155,39 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="24"/>
+      <c r="Q1" s="25"/>
       <c r="R1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6">
@@ -12811,7 +13282,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
@@ -12840,7 +13311,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
@@ -12866,7 +13337,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
@@ -12892,7 +13363,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -12970,7 +13441,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
@@ -12996,7 +13467,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
@@ -13022,7 +13493,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
@@ -13048,7 +13519,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="I13" t="s">
@@ -13126,7 +13597,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="J16" t="s">
@@ -13152,7 +13623,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
@@ -13178,7 +13649,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="J18" t="s">
@@ -13204,7 +13675,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="J19" t="s">
@@ -13282,7 +13753,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="J22" t="s">
@@ -13308,7 +13779,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="J23" t="s">
@@ -13334,7 +13805,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="J24" t="s">
@@ -13360,7 +13831,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="J25" t="s">
@@ -13438,7 +13909,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -13464,7 +13935,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -13490,7 +13961,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -13516,7 +13987,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -13594,7 +14065,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -13620,7 +14091,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -13646,7 +14117,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -13672,7 +14143,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -13750,7 +14221,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -13776,7 +14247,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -13802,7 +14273,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -13828,7 +14299,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -13906,7 +14377,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -13932,7 +14403,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -13958,7 +14429,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -13984,7 +14455,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="1" t="s">

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072E96B-092D-C741-867F-47AB5E4D131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0E1B1-3AC5-4E40-BEB3-3C342488946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="59">
   <si>
     <t>Compared to</t>
   </si>
@@ -7413,7 +7413,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -10522,9 +10522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7095BF4C-86DB-0846-8B79-D60FE8D21AF9}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X88" sqref="X88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11090,6 +11090,9 @@
       <c r="W16" t="s">
         <v>38</v>
       </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -11116,6 +11119,9 @@
       <c r="W17" t="s">
         <v>38</v>
       </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -11142,6 +11148,9 @@
       <c r="W18" t="s">
         <v>38</v>
       </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -11168,6 +11177,9 @@
       <c r="W19" t="s">
         <v>38</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
@@ -11194,6 +11206,9 @@
       <c r="W20" t="s">
         <v>38</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
@@ -11220,6 +11235,9 @@
       <c r="W21" t="s">
         <v>38</v>
       </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
@@ -11594,6 +11612,9 @@
       <c r="W34" t="s">
         <v>38</v>
       </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
@@ -11620,6 +11641,9 @@
       <c r="W35" t="s">
         <v>38</v>
       </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
@@ -11646,6 +11670,9 @@
       <c r="W36" t="s">
         <v>38</v>
       </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
@@ -11672,6 +11699,9 @@
       <c r="W37" t="s">
         <v>38</v>
       </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
@@ -11698,6 +11728,9 @@
       <c r="W38" t="s">
         <v>38</v>
       </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
@@ -11724,6 +11757,9 @@
       <c r="W39" t="s">
         <v>38</v>
       </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
@@ -12272,6 +12308,9 @@
       <c r="W58" t="s">
         <v>38</v>
       </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
@@ -12298,6 +12337,9 @@
       <c r="W59" t="s">
         <v>38</v>
       </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
@@ -12324,6 +12366,9 @@
       <c r="W60" t="s">
         <v>38</v>
       </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
@@ -13053,6 +13098,9 @@
       <c r="W85" t="s">
         <v>38</v>
       </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
@@ -13079,6 +13127,9 @@
       <c r="W86" t="s">
         <v>38</v>
       </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
@@ -13104,6 +13155,9 @@
       </c>
       <c r="W87" t="s">
         <v>38</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13124,36 +13178,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U69" sqref="U69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="24" t="s">
         <v>32</v>
@@ -13162,31 +13218,33 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -13205,90 +13263,88 @@
       <c r="F2" s="7">
         <v>0.05</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="L2" s="7">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="M3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
         <v>38</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>-1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="C4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -13297,27 +13353,27 @@
       <c r="Q4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
         <v>38</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -13326,24 +13382,24 @@
       <c r="Q5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
         <v>38</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="E6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -13352,24 +13408,24 @@
       <c r="Q6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
         <v>38</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -13378,24 +13434,24 @@
       <c r="Q7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
         <v>38</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="G8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
         <v>9</v>
       </c>
       <c r="O8" s="4" t="s">
@@ -13404,1237 +13460,1648 @@
       <c r="Q8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
         <v>38</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="H9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
         <v>38</v>
       </c>
-      <c r="S9">
+      <c r="U11">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="C12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
         <v>38</v>
       </c>
-      <c r="S10">
+      <c r="U12">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
         <v>38</v>
       </c>
-      <c r="S11">
+      <c r="U13">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="E14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
         <v>38</v>
       </c>
-      <c r="S12">
+      <c r="U14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="S13">
+      <c r="U15">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="G16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" t="s">
         <v>38</v>
       </c>
-      <c r="S14">
+      <c r="U16">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="H17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" t="s">
         <v>38</v>
       </c>
-      <c r="S15">
+      <c r="U19">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="C20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" t="s">
         <v>38</v>
       </c>
-      <c r="S16">
+      <c r="U20">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="D21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" t="s">
         <v>38</v>
       </c>
-      <c r="S17">
+      <c r="U21">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" t="s">
         <v>38</v>
       </c>
-      <c r="S18">
+      <c r="U22">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="F23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" t="s">
         <v>38</v>
       </c>
-      <c r="S19">
+      <c r="U23">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="G24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" t="s">
         <v>38</v>
       </c>
-      <c r="S20">
+      <c r="U24">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" t="s">
         <v>38</v>
       </c>
-      <c r="S21">
+      <c r="U25">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="C26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" t="s">
         <v>38</v>
       </c>
-      <c r="S22">
+      <c r="U26">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="D27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" t="s">
         <v>38</v>
       </c>
-      <c r="S23">
+      <c r="U27">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="E28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" t="s">
         <v>38</v>
       </c>
-      <c r="S24">
+      <c r="U28">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="F29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" t="s">
         <v>38</v>
       </c>
-      <c r="S25">
+      <c r="U29">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="G30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" t="s">
         <v>38</v>
       </c>
-      <c r="S26">
+      <c r="U30">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" t="s">
         <v>38</v>
       </c>
-      <c r="S27">
+      <c r="U31">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="C32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" t="s">
         <v>38</v>
       </c>
-      <c r="S28">
+      <c r="U32">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" t="s">
         <v>38</v>
       </c>
-      <c r="S29">
+      <c r="U33">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="E34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" t="s">
         <v>38</v>
       </c>
-      <c r="S30">
+      <c r="U34">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="F35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" t="s">
         <v>38</v>
       </c>
-      <c r="S31">
+      <c r="U35">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="G36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" t="s">
         <v>38</v>
       </c>
-      <c r="S32">
+      <c r="U36">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="H37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="I38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" t="s">
         <v>38</v>
       </c>
-      <c r="S33">
+      <c r="U39">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="C40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" t="s">
         <v>38</v>
       </c>
-      <c r="S34">
+      <c r="U40">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="D41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" t="s">
         <v>38</v>
       </c>
-      <c r="S35">
+      <c r="U41">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="E42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" t="s">
         <v>38</v>
       </c>
-      <c r="S36">
+      <c r="U42">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>35</v>
       </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="F43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" t="s">
         <v>38</v>
       </c>
-      <c r="S37">
+      <c r="U43">
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>36</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="G44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" t="s">
         <v>38</v>
       </c>
-      <c r="S38">
+      <c r="U44">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="H45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" t="s">
+        <v>38</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="I46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" t="s">
-        <v>9</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" t="s">
         <v>38</v>
       </c>
-      <c r="S39">
+      <c r="U47">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="C48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" t="s">
         <v>38</v>
       </c>
-      <c r="S40">
+      <c r="U48">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" t="s">
-        <v>9</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="D49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" t="s">
         <v>38</v>
       </c>
-      <c r="S41">
+      <c r="U49">
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="E50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T50" t="s">
         <v>38</v>
       </c>
-      <c r="S42">
+      <c r="U50">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="F51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" t="s">
         <v>38</v>
       </c>
-      <c r="S43">
+      <c r="U51">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="G52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" t="s">
         <v>38</v>
       </c>
-      <c r="S44">
+      <c r="U52">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="H53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T53" t="s">
+        <v>38</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="I54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N54" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T54" t="s">
+        <v>38</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" t="s">
         <v>38</v>
       </c>
-      <c r="S45">
+      <c r="U55">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" t="s">
-        <v>9</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R46" t="s">
+      <c r="C56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T56" t="s">
         <v>38</v>
       </c>
-      <c r="S46">
+      <c r="U56">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>9</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="D57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T57" t="s">
         <v>38</v>
       </c>
-      <c r="S47">
+      <c r="U57">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" t="s">
-        <v>9</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="E58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T58" t="s">
         <v>38</v>
       </c>
-      <c r="S48">
+      <c r="U58">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>47</v>
       </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" t="s">
-        <v>9</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="F59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T59" t="s">
         <v>38</v>
       </c>
-      <c r="S49">
+      <c r="U59">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>48</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" t="s">
-        <v>9</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="G60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T60" t="s">
         <v>38</v>
       </c>
-      <c r="S50">
+      <c r="U60">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="H61" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T61" t="s">
+        <v>38</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="I62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T62" t="s">
+        <v>38</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="G63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T63" t="s">
+        <v>38</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="H64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+      <c r="P64" t="s">
+        <v>9</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T64" t="s">
+        <v>38</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="I65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" t="s">
+        <v>9</v>
+      </c>
+      <c r="P65" t="s">
+        <v>9</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T65" t="s">
+        <v>38</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="G66" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" t="s">
+        <v>9</v>
+      </c>
+      <c r="P66" t="s">
+        <v>9</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T66" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="H67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N67" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T67" t="s">
+        <v>38</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="I68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" t="s">
+        <v>9</v>
+      </c>
+      <c r="P68" t="s">
+        <v>9</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T68" t="s">
+        <v>38</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B0E1B1-3AC5-4E40-BEB3-3C342488946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF256-23F1-8D47-A185-D63D958E1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="60">
   <si>
     <t>Compared to</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>B5</t>
+  </si>
+  <si>
+    <t>Only demo. actions</t>
   </si>
 </sst>
 </file>
@@ -7413,7 +7416,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -13178,11 +13181,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U69" sqref="U69"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13205,11 +13208,13 @@
     <col min="17" max="17" width="6.83203125" style="4" customWidth="1"/>
     <col min="18" max="18" width="8" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="24" t="s">
         <v>32</v>
@@ -13239,12 +13244,16 @@
         <v>52</v>
       </c>
       <c r="S1" s="25"/>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="15"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -13302,10 +13311,16 @@
       <c r="S2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13327,17 +13342,20 @@
       <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>-1</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13356,17 +13374,20 @@
       <c r="S4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
         <v>38</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13385,14 +13406,17 @@
       <c r="S5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
         <v>38</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13411,14 +13435,17 @@
       <c r="S6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
         <v>38</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13437,14 +13464,17 @@
       <c r="S7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13463,14 +13493,17 @@
       <c r="S8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
         <v>38</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="H9" s="27" t="s">
         <v>9</v>
@@ -13487,14 +13520,17 @@
       <c r="S9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="U9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="I10" s="4" t="s">
         <v>9</v>
@@ -13511,14 +13547,17 @@
       <c r="S10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="U10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -13537,14 +13576,17 @@
       <c r="R11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -13563,14 +13605,17 @@
       <c r="R12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -13589,14 +13634,17 @@
       <c r="R13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
         <v>38</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -13615,14 +13663,17 @@
       <c r="R14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" t="s">
         <v>38</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -13641,14 +13692,17 @@
       <c r="R15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" t="s">
         <v>38</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -13667,14 +13721,17 @@
       <c r="R16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
         <v>38</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="H17" s="27" t="s">
         <v>9</v>
@@ -13691,14 +13748,17 @@
       <c r="R17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="U17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="I18" s="4" t="s">
         <v>9</v>
@@ -13715,14 +13775,17 @@
       <c r="R18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -13741,14 +13804,17 @@
       <c r="S19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" t="s">
         <v>38</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -13767,14 +13833,17 @@
       <c r="S20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
         <v>38</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -13793,14 +13862,17 @@
       <c r="S21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
         <v>38</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -13819,14 +13891,17 @@
       <c r="S22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
         <v>38</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -13845,14 +13920,17 @@
       <c r="S23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" t="s">
         <v>38</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -13871,14 +13949,17 @@
       <c r="S24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" t="s">
         <v>38</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -13897,14 +13978,17 @@
       <c r="R25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" t="s">
         <v>38</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -13923,14 +14007,17 @@
       <c r="R26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" t="s">
         <v>38</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -13949,14 +14036,17 @@
       <c r="R27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" t="s">
         <v>38</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -13975,14 +14065,17 @@
       <c r="R28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" t="s">
         <v>38</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -14001,14 +14094,17 @@
       <c r="R29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" t="s">
         <v>38</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -14027,14 +14123,17 @@
       <c r="R30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" t="s">
         <v>38</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -14053,14 +14152,17 @@
       <c r="S31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" t="s">
         <v>38</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -14079,14 +14181,17 @@
       <c r="S32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" t="s">
         <v>38</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -14105,14 +14210,17 @@
       <c r="S33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" t="s">
         <v>38</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -14131,14 +14239,17 @@
       <c r="S34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" t="s">
         <v>38</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -14157,14 +14268,17 @@
       <c r="S35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" t="s">
         <v>38</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -14183,14 +14297,17 @@
       <c r="S36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" t="s">
         <v>38</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="H37" s="27" t="s">
         <v>9</v>
@@ -14207,14 +14324,17 @@
       <c r="S37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" t="s">
         <v>38</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="I38" s="4" t="s">
         <v>9</v>
@@ -14231,14 +14351,17 @@
       <c r="S38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" t="s">
         <v>38</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -14257,14 +14380,17 @@
       <c r="R39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" t="s">
         <v>38</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -14283,14 +14409,17 @@
       <c r="R40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" t="s">
         <v>38</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>33</v>
       </c>
@@ -14309,14 +14438,17 @@
       <c r="R41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" t="s">
         <v>38</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>34</v>
       </c>
@@ -14335,14 +14467,17 @@
       <c r="R42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" t="s">
         <v>38</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>35</v>
       </c>
@@ -14361,14 +14496,17 @@
       <c r="R43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" t="s">
         <v>38</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -14387,14 +14525,17 @@
       <c r="R44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" t="s">
         <v>38</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="H45" s="27" t="s">
         <v>9</v>
@@ -14411,14 +14552,17 @@
       <c r="R45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" t="s">
         <v>38</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="I46" s="4" t="s">
         <v>9</v>
@@ -14435,14 +14579,17 @@
       <c r="R46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" t="s">
         <v>38</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37</v>
       </c>
@@ -14461,14 +14608,17 @@
       <c r="S47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" t="s">
         <v>38</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>38</v>
       </c>
@@ -14487,14 +14637,17 @@
       <c r="S48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48" t="s">
         <v>38</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>39</v>
       </c>
@@ -14513,14 +14666,17 @@
       <c r="S49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V49" t="s">
         <v>38</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40</v>
       </c>
@@ -14539,14 +14695,17 @@
       <c r="S50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50" t="s">
         <v>38</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>41</v>
       </c>
@@ -14565,14 +14724,17 @@
       <c r="S51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51" t="s">
         <v>38</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42</v>
       </c>
@@ -14591,14 +14753,17 @@
       <c r="S52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" t="s">
         <v>38</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="H53" s="27" t="s">
         <v>9</v>
@@ -14615,14 +14780,17 @@
       <c r="S53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" t="s">
         <v>38</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="I54" s="4" t="s">
         <v>9</v>
@@ -14639,14 +14807,17 @@
       <c r="S54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" t="s">
         <v>38</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43</v>
       </c>
@@ -14665,14 +14836,17 @@
       <c r="R55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" t="s">
         <v>38</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44</v>
       </c>
@@ -14691,14 +14865,17 @@
       <c r="R56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V56" t="s">
         <v>38</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45</v>
       </c>
@@ -14717,14 +14894,17 @@
       <c r="R57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V57" t="s">
         <v>38</v>
       </c>
-      <c r="U57">
+      <c r="W57">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>46</v>
       </c>
@@ -14743,14 +14923,17 @@
       <c r="R58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" t="s">
         <v>38</v>
       </c>
-      <c r="U58">
+      <c r="W58">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>47</v>
       </c>
@@ -14769,14 +14952,17 @@
       <c r="R59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" t="s">
         <v>38</v>
       </c>
-      <c r="U59">
+      <c r="W59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>48</v>
       </c>
@@ -14795,14 +14981,17 @@
       <c r="R60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V60" t="s">
         <v>38</v>
       </c>
-      <c r="U60">
+      <c r="W60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>49</v>
       </c>
@@ -14821,14 +15010,17 @@
       <c r="R61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V61" t="s">
         <v>38</v>
       </c>
-      <c r="U61">
+      <c r="W61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>50</v>
       </c>
@@ -14847,14 +15039,17 @@
       <c r="R62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V62" t="s">
         <v>38</v>
       </c>
-      <c r="U62">
+      <c r="W62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>51</v>
       </c>
@@ -14873,14 +15068,17 @@
       <c r="S63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V63" t="s">
         <v>38</v>
       </c>
-      <c r="U63">
+      <c r="W63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>52</v>
       </c>
@@ -14899,14 +15097,17 @@
       <c r="S64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V64" t="s">
         <v>38</v>
       </c>
-      <c r="U64">
+      <c r="W64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>53</v>
       </c>
@@ -14925,14 +15126,17 @@
       <c r="S65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V65" t="s">
         <v>38</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>54</v>
       </c>
@@ -14951,14 +15155,17 @@
       <c r="R66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V66" t="s">
         <v>38</v>
       </c>
-      <c r="U66">
+      <c r="W66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>55</v>
       </c>
@@ -14977,14 +15184,17 @@
       <c r="R67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V67" t="s">
         <v>38</v>
       </c>
-      <c r="U67">
+      <c r="W67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -15003,69 +15213,104 @@
       <c r="R68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V68" t="s">
         <v>38</v>
       </c>
-      <c r="U68">
+      <c r="W68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D69" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="28"/>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H70" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="28"/>
+      <c r="K70" t="s">
+        <v>9</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>68</v>
       </c>
@@ -15096,7 +15341,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:Q1"/>

--- a/experiments/overview.xlsx
+++ b/experiments/overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF256-23F1-8D47-A185-D63D958E1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BBCE2A-1F12-F744-8284-12D6BA866B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{B895A0EB-897B-CF40-998F-9A2998F032D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis SAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="61">
   <si>
     <t>Compared to</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Only demo. actions</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -449,8 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4630,8 +4631,8 @@
       <xdr:rowOff>19239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2585580" cy="253339"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5112,7 +5113,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -6803,8 +6804,8 @@
       <xdr:rowOff>37574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3164178" cy="204543"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -7316,7 +7317,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -8271,13 +8272,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055DFDFD-4DB9-A14C-A61C-2EE504E7C00B}">
-  <dimension ref="A1:AV50"/>
+  <dimension ref="A1:AV38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AS16" sqref="AS16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
@@ -9100,8 +9101,8 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -10132,7 +10133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10240,263 +10241,258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-    </row>
-    <row r="43" spans="1:48" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R47" s="11"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="10"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR49" t="s">
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
         <v>35</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R50" s="21"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="U50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V50" s="19"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="19"/>
-      <c r="AQ50" s="19"/>
-      <c r="AR50" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="21"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="19"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AS50" s="19"/>
-      <c r="AT50" s="19"/>
-      <c r="AU50" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10536,10 +10532,10 @@
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="4" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
@@ -10677,7 +10673,7 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -10898,7 +10894,7 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
@@ -10930,7 +10926,7 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
@@ -10959,7 +10955,7 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
@@ -10988,7 +10984,7 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="I13" t="s">
@@ -11017,7 +11013,7 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
@@ -11046,7 +11042,7 @@
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="I15" t="s">
@@ -11075,7 +11071,7 @@
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="I16" t="s">
@@ -11104,7 +11100,7 @@
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="I17" t="s">
@@ -11133,7 +11129,7 @@
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="I18" t="s">
@@ -11423,7 +11419,7 @@
       <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -11452,7 +11448,7 @@
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -11481,7 +11477,7 @@
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -11510,7 +11506,7 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -11539,7 +11535,7 @@
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -11568,7 +11564,7 @@
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -11597,7 +11593,7 @@
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -11626,7 +11622,7 @@
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -11655,7 +11651,7 @@
       <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -11774,7 +11770,7 @@
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -11803,7 +11799,7 @@
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -11832,7 +11828,7 @@
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -11861,7 +11857,7 @@
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -11890,7 +11886,7 @@
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" t="s">
         <v>9</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -11919,7 +11915,7 @@
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" t="s">
         <v>9</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -11945,10 +11941,10 @@
       <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="27" t="s">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -11974,10 +11970,10 @@
       <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="27" t="s">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
         <v>9</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -12003,10 +11999,10 @@
       <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="27" t="s">
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -12032,10 +12028,10 @@
       <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="27" t="s">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
         <v>9</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -12061,10 +12057,10 @@
       <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="27" t="s">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -12090,10 +12086,10 @@
       <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="27" t="s">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -12119,10 +12115,10 @@
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="27" t="s">
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
         <v>9</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -12148,10 +12144,10 @@
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="27" t="s">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
         <v>9</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -12177,10 +12173,10 @@
       <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="27" t="s">
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
         <v>9</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -12206,10 +12202,10 @@
       <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="27" t="s">
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
         <v>9</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -12235,10 +12231,10 @@
       <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="27" t="s">
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
         <v>9</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -12264,10 +12260,10 @@
       <c r="C57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="27" t="s">
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
         <v>9</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -12296,7 +12292,7 @@
       <c r="G58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H58" t="s">
         <v>9</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -12325,7 +12321,7 @@
       <c r="G59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" t="s">
         <v>9</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -12354,7 +12350,7 @@
       <c r="G60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" t="s">
         <v>9</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -12380,7 +12376,7 @@
       <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="I61" t="s">
@@ -12411,7 +12407,7 @@
       <c r="C62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="I62" t="s">
@@ -12441,7 +12437,7 @@
       <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="I63" t="s">
@@ -12471,7 +12467,7 @@
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="I64" t="s">
@@ -12501,7 +12497,7 @@
       <c r="C65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="I65" t="s">
@@ -12531,7 +12527,7 @@
       <c r="C66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="I66" t="s">
@@ -12564,7 +12560,7 @@
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="H67" t="s">
         <v>9</v>
       </c>
       <c r="L67" t="s">
@@ -12593,7 +12589,7 @@
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" t="s">
         <v>9</v>
       </c>
       <c r="L68" t="s">
@@ -12622,7 +12618,7 @@
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="27" t="s">
+      <c r="H69" t="s">
         <v>9</v>
       </c>
       <c r="L69" t="s">
@@ -12651,7 +12647,7 @@
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" t="s">
         <v>9</v>
       </c>
       <c r="L70" t="s">
@@ -12680,7 +12676,7 @@
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="27" t="s">
+      <c r="H71" t="s">
         <v>9</v>
       </c>
       <c r="L71" t="s">
@@ -12709,7 +12705,7 @@
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="27" t="s">
+      <c r="H72" t="s">
         <v>9</v>
       </c>
       <c r="L72" t="s">
@@ -12735,10 +12731,10 @@
       <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="27" t="s">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
         <v>9</v>
       </c>
       <c r="L73" t="s">
@@ -12764,10 +12760,10 @@
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="27" t="s">
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
         <v>9</v>
       </c>
       <c r="L74" t="s">
@@ -12793,10 +12789,10 @@
       <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="27" t="s">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
         <v>9</v>
       </c>
       <c r="L75" t="s">
@@ -12822,10 +12818,10 @@
       <c r="C76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="27" t="s">
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
         <v>9</v>
       </c>
       <c r="L76" t="s">
@@ -12851,10 +12847,10 @@
       <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="27" t="s">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
         <v>9</v>
       </c>
       <c r="L77" t="s">
@@ -12880,10 +12876,10 @@
       <c r="C78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="27" t="s">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
         <v>9</v>
       </c>
       <c r="L78" t="s">
@@ -12909,10 +12905,10 @@
       <c r="C79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="27" t="s">
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
         <v>9</v>
       </c>
       <c r="L79" t="s">
@@ -12938,10 +12934,10 @@
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="27" t="s">
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
         <v>9</v>
       </c>
       <c r="L80" t="s">
@@ -12967,10 +12963,10 @@
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="27" t="s">
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
         <v>9</v>
       </c>
       <c r="L81" t="s">
@@ -12996,10 +12992,10 @@
       <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="27" t="s">
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
         <v>9</v>
       </c>
       <c r="L82" t="s">
@@ -13025,10 +13021,10 @@
       <c r="C83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="27" t="s">
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
         <v>9</v>
       </c>
       <c r="L83" t="s">
@@ -13054,10 +13050,10 @@
       <c r="C84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="27" t="s">
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
         <v>9</v>
       </c>
       <c r="L84" t="s">
@@ -13086,7 +13082,7 @@
       <c r="G85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="H85" t="s">
         <v>9</v>
       </c>
       <c r="L85" t="s">
@@ -13115,7 +13111,7 @@
       <c r="G86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H86" t="s">
         <v>9</v>
       </c>
       <c r="L86" t="s">
@@ -13144,7 +13140,7 @@
       <c r="G87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="H87" t="s">
         <v>9</v>
       </c>
       <c r="L87" t="s">
@@ -13183,8 +13179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D30CF0-23D9-BF4E-848C-30819883CD83}">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
@@ -13192,13 +13188,13 @@
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
     <col min="11" max="11" width="5.1640625" customWidth="1"/>
     <col min="12" max="12" width="4.83203125" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -13359,7 +13355,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="K4" t="s">
@@ -13391,7 +13387,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="K5" t="s">
@@ -13420,7 +13416,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="K6" t="s">
@@ -13449,7 +13445,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="K7" t="s">
@@ -13478,7 +13474,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="K8" t="s">
@@ -13505,7 +13501,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="H9" s="27" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="K9" t="s">
@@ -13523,7 +13519,7 @@
       <c r="U9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" t="s">
         <v>38</v>
       </c>
       <c r="W9">
@@ -13550,7 +13546,7 @@
       <c r="U10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="V10" t="s">
         <v>38</v>
       </c>
       <c r="W10">
@@ -13590,7 +13586,7 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="K12" t="s">
@@ -13619,7 +13615,7 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="K13" t="s">
@@ -13648,7 +13644,7 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="K14" t="s">
@@ -13677,7 +13673,7 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="K15" t="s">
@@ -13706,7 +13702,7 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="K16" t="s">
@@ -13733,7 +13729,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="H17" s="27" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
       <c r="K17" t="s">
@@ -13751,7 +13747,7 @@
       <c r="U17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V17" s="28" t="s">
+      <c r="V17" t="s">
         <v>38</v>
       </c>
       <c r="W17">
@@ -13778,7 +13774,7 @@
       <c r="U18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V18" s="28" t="s">
+      <c r="V18" t="s">
         <v>38</v>
       </c>
       <c r="W18">
@@ -13818,7 +13814,7 @@
       <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="L20" t="s">
@@ -13847,7 +13843,7 @@
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="L21" t="s">
@@ -13876,7 +13872,7 @@
       <c r="A22" s="1">
         <v>16</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="L22" t="s">
@@ -13905,7 +13901,7 @@
       <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="L23" t="s">
@@ -13934,7 +13930,7 @@
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="L24" t="s">
@@ -13992,7 +13988,7 @@
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="L26" t="s">
@@ -14021,7 +14017,7 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="L27" t="s">
@@ -14050,7 +14046,7 @@
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="L28" t="s">
@@ -14079,7 +14075,7 @@
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="L29" t="s">
@@ -14108,7 +14104,7 @@
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
       <c r="L30" t="s">
@@ -14140,7 +14136,7 @@
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" t="s">
         <v>9</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -14166,10 +14162,10 @@
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="27" t="s">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
         <v>9</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -14195,10 +14191,10 @@
       <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="27" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
         <v>9</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -14224,10 +14220,10 @@
       <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="27" t="s">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -14253,10 +14249,10 @@
       <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="27" t="s">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
         <v>9</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -14282,10 +14278,10 @@
       <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="27" t="s">
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
         <v>9</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -14309,10 +14305,10 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="H37" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="28" t="s">
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
         <v>9</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -14339,7 +14335,7 @@
       <c r="I38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" t="s">
         <v>9</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -14368,7 +14364,7 @@
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="J39" t="s">
         <v>9</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -14394,10 +14390,10 @@
       <c r="A40" s="1">
         <v>32</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
         <v>9</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -14423,10 +14419,10 @@
       <c r="A41" s="1">
         <v>33</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="27" t="s">
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
         <v>9</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -14452,10 +14448,10 @@
       <c r="A42" s="1">
         <v>34</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="27" t="s">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
         <v>9</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -14481,10 +14477,10 @@
       <c r="A43" s="1">
         <v>35</v>
       </c>
-      <c r="F43" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="27" t="s">
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
         <v>9</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -14510,10 +14506,10 @@
       <c r="A44" s="1">
         <v>36</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="27" t="s">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
         <v>9</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -14537,10 +14533,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="H45" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="28" t="s">
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
         <v>9</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -14567,7 +14563,7 @@
       <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" t="s">
         <v>9</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -14596,7 +14592,7 @@
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" t="s">
         <v>9</v>
       </c>
       <c r="N47" t="s">
@@ -14622,10 +14618,10 @@
       <c r="A48" s="1">
         <v>38</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="27" t="s">
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
         <v>9</v>
       </c>
       <c r="N48" t="s">
@@ -14651,10 +14647,10 @@
       <c r="A49" s="1">
         <v>39</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="27" t="s">
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" t="s">
         <v>9</v>
       </c>
       <c r="N49" t="s">
@@ -14680,10 +14676,10 @@
       <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="27" t="s">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
         <v>9</v>
       </c>
       <c r="N50" t="s">
@@ -14709,10 +14705,10 @@
       <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="F51" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="27" t="s">
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="N51" t="s">
@@ -14738,10 +14734,10 @@
       <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="G52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="27" t="s">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
         <v>9</v>
       </c>
       <c r="N52" t="s">
@@ -14765,10 +14761,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="H53" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="28" t="s">
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
         <v>9</v>
       </c>
       <c r="N53" t="s">
@@ -14795,7 +14791,7 @@
       <c r="I54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="28" t="s">
+      <c r="J54" t="s">
         <v>9</v>
       </c>
       <c r="N54" t="s">
@@ -14824,7 +14820,7 @@
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J55" t="s">
         <v>9</v>
       </c>
       <c r="N55" t="s">
@@ -14850,10 +14846,10 @@
       <c r="A56" s="1">
         <v>44</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" s="27" t="s">
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
         <v>9</v>
       </c>
       <c r="N56" t="s">
@@ -14879,10 +14875,10 @@
       <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="27" t="s">
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
         <v>9</v>
       </c>
       <c r="N57" t="s">
@@ -14908,10 +14904,10 @@
       <c r="A58" s="1">
         <v>46</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="27" t="s">
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
         <v>9</v>
       </c>
       <c r="N58" t="s">
@@ -14937,10 +14933,10 @@
       <c r="A59" s="1">
         <v>47</v>
       </c>
-      <c r="F59" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="27" t="s">
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
         <v>9</v>
       </c>
       <c r="N59" t="s">
@@ -14966,10 +14962,10 @@
       <c r="A60" s="1">
         <v>48</v>
       </c>
-      <c r="G60" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" s="27" t="s">
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
         <v>9</v>
       </c>
       <c r="N60" t="s">
@@ -14995,10 +14991,10 @@
       <c r="A61" s="1">
         <v>49</v>
       </c>
-      <c r="H61" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="28" t="s">
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
         <v>9</v>
       </c>
       <c r="N61" t="s">
@@ -15027,7 +15023,7 @@
       <c r="I62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" t="s">
         <v>9</v>
       </c>
       <c r="N62" t="s">
@@ -15053,10 +15049,10 @@
       <c r="A63" s="1">
         <v>51</v>
       </c>
-      <c r="G63" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="28" t="s">
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
         <v>9</v>
       </c>
       <c r="N63" t="s">
@@ -15082,10 +15078,10 @@
       <c r="A64" s="1">
         <v>52</v>
       </c>
-      <c r="H64" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="28" t="s">
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
         <v>9</v>
       </c>
       <c r="N64" t="s">
@@ -15114,7 +15110,7 @@
       <c r="I65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="J65" t="s">
         <v>9</v>
       </c>
       <c r="N65" t="s">
@@ -15140,10 +15136,10 @@
       <c r="A66" s="1">
         <v>54</v>
       </c>
-      <c r="G66" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" s="28" t="s">
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
         <v>9</v>
       </c>
       <c r="N66" t="s">
@@ -15169,10 +15165,10 @@
       <c r="A67" s="1">
         <v>55</v>
       </c>
-      <c r="H67" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="28" t="s">
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
         <v>9</v>
       </c>
       <c r="N67" t="s">
@@ -15201,7 +15197,7 @@
       <c r="I68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" t="s">
         <v>9</v>
       </c>
       <c r="N68" t="s">
@@ -15227,10 +15223,9 @@
       <c r="A69" s="1">
         <v>57</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" s="28"/>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
       <c r="K69" t="s">
         <v>9</v>
       </c>
@@ -15248,10 +15243,9 @@
       <c r="A70" s="1">
         <v>58</v>
       </c>
-      <c r="H70" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" s="28"/>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
       <c r="K70" t="s">
         <v>9</v>
       </c>
@@ -15342,12 +15336,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
